--- a/BaseDatasheet.xlsx
+++ b/BaseDatasheet.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyVibe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC2854-3173-417C-82D0-F10EFE4BCD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CEC4D-F394-4B9E-BC50-55C5518D4ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>ServiceLine</t>
   </si>
@@ -161,6 +162,66 @@
   </si>
   <si>
     <t>Tim Halpert</t>
+  </si>
+  <si>
+    <t>Jan-Available Days</t>
+  </si>
+  <si>
+    <t>BillingRateByMonth</t>
+  </si>
+  <si>
+    <t>Jan-Leave Days</t>
+  </si>
+  <si>
+    <t>Jan-Extra Working Days</t>
+  </si>
+  <si>
+    <t>Feb-Available Days</t>
+  </si>
+  <si>
+    <t>Feb-Leave Days</t>
+  </si>
+  <si>
+    <t>Feb-Extra Working Days</t>
+  </si>
+  <si>
+    <t>March-Available Days</t>
+  </si>
+  <si>
+    <t>March-Leave Days</t>
+  </si>
+  <si>
+    <t>March-Extra Working Days</t>
+  </si>
+  <si>
+    <t>Apr-Available Days</t>
+  </si>
+  <si>
+    <t>Apr-Leave Days</t>
+  </si>
+  <si>
+    <t>Apr-Extra Working Days</t>
+  </si>
+  <si>
+    <t>May-Available Days</t>
+  </si>
+  <si>
+    <t>May-Leave Days</t>
+  </si>
+  <si>
+    <t>May-Extra Working Days</t>
+  </si>
+  <si>
+    <t>June-Leave Days</t>
+  </si>
+  <si>
+    <t>June-Extra Working Days</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>June-Available Days</t>
   </si>
 </sst>
 </file>
@@ -202,11 +263,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1128,4 +1192,1023 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116FF029-E64B-4237-A8C0-D94515D54FF0}">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>764523</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>21</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>23</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>(I2+K2+L2+N2+O2+Q2+R2+T2+U2+W2+X2+Z2)*4000-(J2+M2+P2+S2+V2+Y2)*4000</f>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>985432</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>21</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA12" si="0">(I3+K3+L3+N3+O3+Q3+R3+T3+U3+W3+X3+Z3)*4000-(J3+M3+P3+S3+V3+Y3)*4000</f>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>756352</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>21</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>23</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>764523</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>985432</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>23</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>23</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>756352</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>23</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>23</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>654743</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>21</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>23</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>23</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>644998</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>21</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>23</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>23</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>546342</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>21</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>23</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>23</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>776348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>21</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>23</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>21</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>23</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>504000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BaseDatasheet.xlsx
+++ b/BaseDatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyVibe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354CEC4D-F394-4B9E-BC50-55C5518D4ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A940738-06CB-49E3-989F-42C9C5E7C1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="81">
   <si>
     <t>ServiceLine</t>
   </si>
@@ -152,24 +152,60 @@
     <t>Tarzan Kurt</t>
   </si>
   <si>
+    <t>Tim Halpert</t>
+  </si>
+  <si>
+    <t>Fest</t>
+  </si>
+  <si>
     <t>Jim Halpert</t>
   </si>
   <si>
     <t>243562</t>
   </si>
   <si>
-    <t>Fest</t>
-  </si>
-  <si>
-    <t>Tim Halpert</t>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>546621</t>
+  </si>
+  <si>
+    <t>QTest</t>
+  </si>
+  <si>
+    <t>764523</t>
+  </si>
+  <si>
+    <t>985432</t>
+  </si>
+  <si>
+    <t>756352</t>
+  </si>
+  <si>
+    <t>654743</t>
+  </si>
+  <si>
+    <t>644998</t>
+  </si>
+  <si>
+    <t>546342</t>
+  </si>
+  <si>
+    <t>776348</t>
+  </si>
+  <si>
+    <t>650936</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>BillingRateByMonth</t>
   </si>
   <si>
     <t>Jan-Available Days</t>
   </si>
   <si>
-    <t>BillingRateByMonth</t>
-  </si>
-  <si>
     <t>Jan-Leave Days</t>
   </si>
   <si>
@@ -212,6 +248,9 @@
     <t>May-Extra Working Days</t>
   </si>
   <si>
+    <t>June-Available Days</t>
+  </si>
+  <si>
     <t>June-Leave Days</t>
   </si>
   <si>
@@ -221,7 +260,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>June-Available Days</t>
+    <t>September Actuals</t>
+  </si>
+  <si>
+    <t>September Forecast</t>
   </si>
 </sst>
 </file>
@@ -552,21 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16" style="1"/>
+    <col min="3" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +678,14 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -687,7 +735,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -737,7 +785,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -790,7 +838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -840,7 +888,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -893,7 +941,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -946,7 +994,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1050,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +1082,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1066,23 +1114,22 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>776348</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>27</v>
       </c>
@@ -1116,34 +1163,35 @@
       <c r="Q11">
         <v>800</v>
       </c>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
       <c r="V11">
         <v>400</v>
       </c>
       <c r="W11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X11">
+        <v>400</v>
+      </c>
+      <c r="Y11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="F12"/>
       <c r="G12" t="s">
         <v>27</v>
       </c>
@@ -1177,16 +1225,4532 @@
       <c r="Q12">
         <v>800</v>
       </c>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
       <c r="V12">
         <v>400</v>
       </c>
       <c r="W12">
         <v>900</v>
       </c>
+      <c r="X12">
+        <v>400</v>
+      </c>
+      <c r="Y12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>566</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14">
+        <v>400</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>350</v>
+      </c>
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>640</v>
+      </c>
+      <c r="O14">
+        <v>700</v>
+      </c>
+      <c r="P14">
+        <v>450</v>
+      </c>
+      <c r="Q14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15">
+        <v>400</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>350</v>
+      </c>
+      <c r="M15">
+        <v>400</v>
+      </c>
+      <c r="N15">
+        <v>640</v>
+      </c>
+      <c r="O15">
+        <v>700</v>
+      </c>
+      <c r="P15">
+        <v>450</v>
+      </c>
+      <c r="Q15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16">
+        <v>600</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16">
+        <v>400</v>
+      </c>
+      <c r="N16">
+        <v>640</v>
+      </c>
+      <c r="O16">
+        <v>700</v>
+      </c>
+      <c r="P16">
+        <v>450</v>
+      </c>
+      <c r="Q16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>566</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17">
+        <v>400</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>350</v>
+      </c>
+      <c r="M17">
+        <v>400</v>
+      </c>
+      <c r="N17">
+        <v>640</v>
+      </c>
+      <c r="O17">
+        <v>700</v>
+      </c>
+      <c r="P17">
+        <v>450</v>
+      </c>
+      <c r="Q17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>400</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>350</v>
+      </c>
+      <c r="M18">
+        <v>400</v>
+      </c>
+      <c r="N18">
+        <v>640</v>
+      </c>
+      <c r="O18">
+        <v>700</v>
+      </c>
+      <c r="P18">
+        <v>450</v>
+      </c>
+      <c r="Q18">
+        <v>800</v>
+      </c>
+      <c r="R18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>600</v>
+      </c>
+      <c r="I19">
+        <v>300</v>
+      </c>
+      <c r="J19">
+        <v>600</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="M19">
+        <v>400</v>
+      </c>
+      <c r="N19">
+        <v>640</v>
+      </c>
+      <c r="O19">
+        <v>700</v>
+      </c>
+      <c r="P19">
+        <v>450</v>
+      </c>
+      <c r="Q19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>800</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
+      </c>
+      <c r="J20">
+        <v>700</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+      <c r="M20">
+        <v>400</v>
+      </c>
+      <c r="N20">
+        <v>640</v>
+      </c>
+      <c r="O20">
+        <v>700</v>
+      </c>
+      <c r="P20">
+        <v>450</v>
+      </c>
+      <c r="Q20">
+        <v>800</v>
+      </c>
+      <c r="R20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>800</v>
+      </c>
+      <c r="I21">
+        <v>400</v>
+      </c>
+      <c r="L21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>800</v>
+      </c>
+      <c r="I22">
+        <v>400</v>
+      </c>
+      <c r="L22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>500</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+      <c r="J23">
+        <v>400</v>
+      </c>
+      <c r="K23">
+        <v>300</v>
+      </c>
+      <c r="L23">
+        <v>350</v>
+      </c>
+      <c r="M23">
+        <v>400</v>
+      </c>
+      <c r="N23">
+        <v>640</v>
+      </c>
+      <c r="O23">
+        <v>700</v>
+      </c>
+      <c r="P23">
+        <v>450</v>
+      </c>
+      <c r="Q23">
+        <v>800</v>
+      </c>
+      <c r="V23">
+        <v>400</v>
+      </c>
+      <c r="W23">
+        <v>900</v>
+      </c>
+      <c r="X23">
+        <v>400</v>
+      </c>
+      <c r="Y23">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>400</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24">
+        <v>350</v>
+      </c>
+      <c r="M24">
+        <v>400</v>
+      </c>
+      <c r="N24">
+        <v>640</v>
+      </c>
+      <c r="O24">
+        <v>700</v>
+      </c>
+      <c r="P24">
+        <v>450</v>
+      </c>
+      <c r="Q24">
+        <v>800</v>
+      </c>
+      <c r="V24">
+        <v>400</v>
+      </c>
+      <c r="W24">
+        <v>900</v>
+      </c>
+      <c r="X24">
+        <v>400</v>
+      </c>
+      <c r="Y24">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>566</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+      <c r="J26">
+        <v>400</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
+      </c>
+      <c r="L26">
+        <v>350</v>
+      </c>
+      <c r="M26">
+        <v>400</v>
+      </c>
+      <c r="N26">
+        <v>640</v>
+      </c>
+      <c r="O26">
+        <v>700</v>
+      </c>
+      <c r="P26">
+        <v>450</v>
+      </c>
+      <c r="Q26">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>500</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27">
+        <v>400</v>
+      </c>
+      <c r="K27">
+        <v>300</v>
+      </c>
+      <c r="L27">
+        <v>350</v>
+      </c>
+      <c r="M27">
+        <v>400</v>
+      </c>
+      <c r="N27">
+        <v>640</v>
+      </c>
+      <c r="O27">
+        <v>700</v>
+      </c>
+      <c r="P27">
+        <v>450</v>
+      </c>
+      <c r="Q27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>600</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
+        <v>600</v>
+      </c>
+      <c r="K28">
+        <v>300</v>
+      </c>
+      <c r="L28">
+        <v>500</v>
+      </c>
+      <c r="M28">
+        <v>400</v>
+      </c>
+      <c r="N28">
+        <v>640</v>
+      </c>
+      <c r="O28">
+        <v>700</v>
+      </c>
+      <c r="P28">
+        <v>450</v>
+      </c>
+      <c r="Q28">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>566</v>
+      </c>
+      <c r="I29">
+        <v>300</v>
+      </c>
+      <c r="J29">
+        <v>400</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
+      </c>
+      <c r="L29">
+        <v>350</v>
+      </c>
+      <c r="M29">
+        <v>400</v>
+      </c>
+      <c r="N29">
+        <v>640</v>
+      </c>
+      <c r="O29">
+        <v>700</v>
+      </c>
+      <c r="P29">
+        <v>450</v>
+      </c>
+      <c r="Q29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+      <c r="J30">
+        <v>400</v>
+      </c>
+      <c r="K30">
+        <v>300</v>
+      </c>
+      <c r="L30">
+        <v>350</v>
+      </c>
+      <c r="M30">
+        <v>400</v>
+      </c>
+      <c r="N30">
+        <v>640</v>
+      </c>
+      <c r="O30">
+        <v>700</v>
+      </c>
+      <c r="P30">
+        <v>450</v>
+      </c>
+      <c r="Q30">
+        <v>800</v>
+      </c>
+      <c r="R30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>600</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>600</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
+      <c r="L31">
+        <v>500</v>
+      </c>
+      <c r="M31">
+        <v>400</v>
+      </c>
+      <c r="N31">
+        <v>640</v>
+      </c>
+      <c r="O31">
+        <v>700</v>
+      </c>
+      <c r="P31">
+        <v>450</v>
+      </c>
+      <c r="Q31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>800</v>
+      </c>
+      <c r="I32">
+        <v>300</v>
+      </c>
+      <c r="J32">
+        <v>700</v>
+      </c>
+      <c r="K32">
+        <v>300</v>
+      </c>
+      <c r="L32">
+        <v>400</v>
+      </c>
+      <c r="M32">
+        <v>400</v>
+      </c>
+      <c r="N32">
+        <v>640</v>
+      </c>
+      <c r="O32">
+        <v>700</v>
+      </c>
+      <c r="P32">
+        <v>450</v>
+      </c>
+      <c r="Q32">
+        <v>800</v>
+      </c>
+      <c r="R32">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <v>800</v>
+      </c>
+      <c r="I33">
+        <v>400</v>
+      </c>
+      <c r="L33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34">
+        <v>800</v>
+      </c>
+      <c r="I34">
+        <v>400</v>
+      </c>
+      <c r="L34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35">
+        <v>400</v>
+      </c>
+      <c r="K35">
+        <v>300</v>
+      </c>
+      <c r="L35">
+        <v>350</v>
+      </c>
+      <c r="M35">
+        <v>400</v>
+      </c>
+      <c r="N35">
+        <v>640</v>
+      </c>
+      <c r="O35">
+        <v>700</v>
+      </c>
+      <c r="P35">
+        <v>450</v>
+      </c>
+      <c r="Q35">
+        <v>800</v>
+      </c>
+      <c r="V35">
+        <v>400</v>
+      </c>
+      <c r="W35">
+        <v>900</v>
+      </c>
+      <c r="X35">
+        <v>400</v>
+      </c>
+      <c r="Y35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <v>500</v>
+      </c>
+      <c r="I36">
+        <v>300</v>
+      </c>
+      <c r="J36">
+        <v>400</v>
+      </c>
+      <c r="K36">
+        <v>300</v>
+      </c>
+      <c r="L36">
+        <v>350</v>
+      </c>
+      <c r="M36">
+        <v>400</v>
+      </c>
+      <c r="N36">
+        <v>640</v>
+      </c>
+      <c r="O36">
+        <v>700</v>
+      </c>
+      <c r="P36">
+        <v>450</v>
+      </c>
+      <c r="Q36">
+        <v>800</v>
+      </c>
+      <c r="V36">
+        <v>400</v>
+      </c>
+      <c r="W36">
+        <v>900</v>
+      </c>
+      <c r="X36">
+        <v>400</v>
+      </c>
+      <c r="Y36">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38">
+        <v>566</v>
+      </c>
+      <c r="I38">
+        <v>300</v>
+      </c>
+      <c r="J38">
+        <v>400</v>
+      </c>
+      <c r="K38">
+        <v>300</v>
+      </c>
+      <c r="L38">
+        <v>350</v>
+      </c>
+      <c r="M38">
+        <v>400</v>
+      </c>
+      <c r="N38">
+        <v>640</v>
+      </c>
+      <c r="O38">
+        <v>700</v>
+      </c>
+      <c r="P38">
+        <v>450</v>
+      </c>
+      <c r="Q38">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39">
+        <v>500</v>
+      </c>
+      <c r="I39">
+        <v>300</v>
+      </c>
+      <c r="J39">
+        <v>400</v>
+      </c>
+      <c r="K39">
+        <v>300</v>
+      </c>
+      <c r="L39">
+        <v>350</v>
+      </c>
+      <c r="M39">
+        <v>400</v>
+      </c>
+      <c r="N39">
+        <v>640</v>
+      </c>
+      <c r="O39">
+        <v>700</v>
+      </c>
+      <c r="P39">
+        <v>450</v>
+      </c>
+      <c r="Q39">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>600</v>
+      </c>
+      <c r="I40">
+        <v>300</v>
+      </c>
+      <c r="J40">
+        <v>600</v>
+      </c>
+      <c r="K40">
+        <v>300</v>
+      </c>
+      <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40">
+        <v>400</v>
+      </c>
+      <c r="N40">
+        <v>640</v>
+      </c>
+      <c r="O40">
+        <v>700</v>
+      </c>
+      <c r="P40">
+        <v>450</v>
+      </c>
+      <c r="Q40">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41">
+        <v>566</v>
+      </c>
+      <c r="I41">
+        <v>300</v>
+      </c>
+      <c r="J41">
+        <v>400</v>
+      </c>
+      <c r="K41">
+        <v>300</v>
+      </c>
+      <c r="L41">
+        <v>350</v>
+      </c>
+      <c r="M41">
+        <v>400</v>
+      </c>
+      <c r="N41">
+        <v>640</v>
+      </c>
+      <c r="O41">
+        <v>700</v>
+      </c>
+      <c r="P41">
+        <v>450</v>
+      </c>
+      <c r="Q41">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <v>500</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+      <c r="J42">
+        <v>400</v>
+      </c>
+      <c r="K42">
+        <v>300</v>
+      </c>
+      <c r="L42">
+        <v>350</v>
+      </c>
+      <c r="M42">
+        <v>400</v>
+      </c>
+      <c r="N42">
+        <v>640</v>
+      </c>
+      <c r="O42">
+        <v>700</v>
+      </c>
+      <c r="P42">
+        <v>450</v>
+      </c>
+      <c r="Q42">
+        <v>800</v>
+      </c>
+      <c r="R42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43">
+        <v>600</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+      <c r="J43">
+        <v>600</v>
+      </c>
+      <c r="K43">
+        <v>300</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>400</v>
+      </c>
+      <c r="N43">
+        <v>640</v>
+      </c>
+      <c r="O43">
+        <v>700</v>
+      </c>
+      <c r="P43">
+        <v>450</v>
+      </c>
+      <c r="Q43">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44">
+        <v>800</v>
+      </c>
+      <c r="I44">
+        <v>300</v>
+      </c>
+      <c r="J44">
+        <v>700</v>
+      </c>
+      <c r="K44">
+        <v>300</v>
+      </c>
+      <c r="L44">
+        <v>400</v>
+      </c>
+      <c r="M44">
+        <v>400</v>
+      </c>
+      <c r="N44">
+        <v>640</v>
+      </c>
+      <c r="O44">
+        <v>700</v>
+      </c>
+      <c r="P44">
+        <v>450</v>
+      </c>
+      <c r="Q44">
+        <v>800</v>
+      </c>
+      <c r="R44">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <v>800</v>
+      </c>
+      <c r="I45">
+        <v>400</v>
+      </c>
+      <c r="L45">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46">
+        <v>800</v>
+      </c>
+      <c r="I46">
+        <v>400</v>
+      </c>
+      <c r="L46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47">
+        <v>500</v>
+      </c>
+      <c r="I47">
+        <v>300</v>
+      </c>
+      <c r="J47">
+        <v>400</v>
+      </c>
+      <c r="K47">
+        <v>300</v>
+      </c>
+      <c r="L47">
+        <v>350</v>
+      </c>
+      <c r="M47">
+        <v>400</v>
+      </c>
+      <c r="N47">
+        <v>640</v>
+      </c>
+      <c r="O47">
+        <v>700</v>
+      </c>
+      <c r="P47">
+        <v>450</v>
+      </c>
+      <c r="Q47">
+        <v>800</v>
+      </c>
+      <c r="V47">
+        <v>400</v>
+      </c>
+      <c r="W47">
+        <v>900</v>
+      </c>
+      <c r="X47">
+        <v>400</v>
+      </c>
+      <c r="Y47">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48">
+        <v>500</v>
+      </c>
+      <c r="I48">
+        <v>300</v>
+      </c>
+      <c r="J48">
+        <v>400</v>
+      </c>
+      <c r="K48">
+        <v>300</v>
+      </c>
+      <c r="L48">
+        <v>350</v>
+      </c>
+      <c r="M48">
+        <v>400</v>
+      </c>
+      <c r="N48">
+        <v>640</v>
+      </c>
+      <c r="O48">
+        <v>700</v>
+      </c>
+      <c r="P48">
+        <v>450</v>
+      </c>
+      <c r="Q48">
+        <v>800</v>
+      </c>
+      <c r="V48">
+        <v>400</v>
+      </c>
+      <c r="W48">
+        <v>900</v>
+      </c>
+      <c r="X48">
+        <v>400</v>
+      </c>
+      <c r="Y48">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>566</v>
+      </c>
+      <c r="I50">
+        <v>300</v>
+      </c>
+      <c r="J50">
+        <v>400</v>
+      </c>
+      <c r="K50">
+        <v>300</v>
+      </c>
+      <c r="L50">
+        <v>350</v>
+      </c>
+      <c r="M50">
+        <v>400</v>
+      </c>
+      <c r="N50">
+        <v>640</v>
+      </c>
+      <c r="O50">
+        <v>700</v>
+      </c>
+      <c r="P50">
+        <v>450</v>
+      </c>
+      <c r="Q50">
+        <v>800</v>
+      </c>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+    </row>
+    <row r="51" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>300</v>
+      </c>
+      <c r="J51">
+        <v>400</v>
+      </c>
+      <c r="K51">
+        <v>300</v>
+      </c>
+      <c r="L51">
+        <v>350</v>
+      </c>
+      <c r="M51">
+        <v>400</v>
+      </c>
+      <c r="N51">
+        <v>640</v>
+      </c>
+      <c r="O51">
+        <v>700</v>
+      </c>
+      <c r="P51">
+        <v>450</v>
+      </c>
+      <c r="Q51">
+        <v>800</v>
+      </c>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+    </row>
+    <row r="52" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>600</v>
+      </c>
+      <c r="I52">
+        <v>300</v>
+      </c>
+      <c r="J52">
+        <v>600</v>
+      </c>
+      <c r="K52">
+        <v>300</v>
+      </c>
+      <c r="L52">
+        <v>500</v>
+      </c>
+      <c r="M52">
+        <v>400</v>
+      </c>
+      <c r="N52">
+        <v>640</v>
+      </c>
+      <c r="O52">
+        <v>700</v>
+      </c>
+      <c r="P52">
+        <v>450</v>
+      </c>
+      <c r="Q52">
+        <v>800</v>
+      </c>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+    </row>
+    <row r="53" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53">
+        <v>566</v>
+      </c>
+      <c r="I53">
+        <v>300</v>
+      </c>
+      <c r="J53">
+        <v>400</v>
+      </c>
+      <c r="K53">
+        <v>300</v>
+      </c>
+      <c r="L53">
+        <v>350</v>
+      </c>
+      <c r="M53">
+        <v>400</v>
+      </c>
+      <c r="N53">
+        <v>640</v>
+      </c>
+      <c r="O53">
+        <v>700</v>
+      </c>
+      <c r="P53">
+        <v>450</v>
+      </c>
+      <c r="Q53">
+        <v>800</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+    </row>
+    <row r="54" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>500</v>
+      </c>
+      <c r="I54">
+        <v>300</v>
+      </c>
+      <c r="J54">
+        <v>400</v>
+      </c>
+      <c r="K54">
+        <v>300</v>
+      </c>
+      <c r="L54">
+        <v>350</v>
+      </c>
+      <c r="M54">
+        <v>400</v>
+      </c>
+      <c r="N54">
+        <v>640</v>
+      </c>
+      <c r="O54">
+        <v>700</v>
+      </c>
+      <c r="P54">
+        <v>450</v>
+      </c>
+      <c r="Q54">
+        <v>800</v>
+      </c>
+      <c r="R54">
+        <v>400</v>
+      </c>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+    </row>
+    <row r="55" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55">
+        <v>600</v>
+      </c>
+      <c r="I55">
+        <v>300</v>
+      </c>
+      <c r="J55">
+        <v>600</v>
+      </c>
+      <c r="K55">
+        <v>300</v>
+      </c>
+      <c r="L55">
+        <v>500</v>
+      </c>
+      <c r="M55">
+        <v>400</v>
+      </c>
+      <c r="N55">
+        <v>640</v>
+      </c>
+      <c r="O55">
+        <v>700</v>
+      </c>
+      <c r="P55">
+        <v>450</v>
+      </c>
+      <c r="Q55">
+        <v>800</v>
+      </c>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+    </row>
+    <row r="56" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56">
+        <v>800</v>
+      </c>
+      <c r="I56">
+        <v>300</v>
+      </c>
+      <c r="J56">
+        <v>700</v>
+      </c>
+      <c r="K56">
+        <v>300</v>
+      </c>
+      <c r="L56">
+        <v>400</v>
+      </c>
+      <c r="M56">
+        <v>400</v>
+      </c>
+      <c r="N56">
+        <v>640</v>
+      </c>
+      <c r="O56">
+        <v>700</v>
+      </c>
+      <c r="P56">
+        <v>450</v>
+      </c>
+      <c r="Q56">
+        <v>800</v>
+      </c>
+      <c r="R56">
+        <v>700</v>
+      </c>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+    </row>
+    <row r="57" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57">
+        <v>800</v>
+      </c>
+      <c r="I57">
+        <v>400</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57">
+        <v>600</v>
+      </c>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+    </row>
+    <row r="58" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>800</v>
+      </c>
+      <c r="I58">
+        <v>400</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58">
+        <v>600</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+    </row>
+    <row r="59" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>500</v>
+      </c>
+      <c r="I59">
+        <v>300</v>
+      </c>
+      <c r="J59">
+        <v>400</v>
+      </c>
+      <c r="K59">
+        <v>300</v>
+      </c>
+      <c r="L59">
+        <v>350</v>
+      </c>
+      <c r="M59">
+        <v>400</v>
+      </c>
+      <c r="N59">
+        <v>640</v>
+      </c>
+      <c r="O59">
+        <v>700</v>
+      </c>
+      <c r="P59">
+        <v>450</v>
+      </c>
+      <c r="Q59">
+        <v>800</v>
+      </c>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59">
+        <v>400</v>
+      </c>
+      <c r="W59">
+        <v>900</v>
+      </c>
+      <c r="X59">
+        <v>400</v>
+      </c>
+      <c r="Y59">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>500</v>
+      </c>
+      <c r="I60">
+        <v>300</v>
+      </c>
+      <c r="J60">
+        <v>400</v>
+      </c>
+      <c r="K60">
+        <v>300</v>
+      </c>
+      <c r="L60">
+        <v>350</v>
+      </c>
+      <c r="M60">
+        <v>400</v>
+      </c>
+      <c r="N60">
+        <v>640</v>
+      </c>
+      <c r="O60">
+        <v>700</v>
+      </c>
+      <c r="P60">
+        <v>450</v>
+      </c>
+      <c r="Q60">
+        <v>800</v>
+      </c>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60">
+        <v>400</v>
+      </c>
+      <c r="W60">
+        <v>900</v>
+      </c>
+      <c r="X60">
+        <v>400</v>
+      </c>
+      <c r="Y60">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61">
+        <v>400</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+    </row>
+    <row r="62" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62">
+        <v>566</v>
+      </c>
+      <c r="I62">
+        <v>300</v>
+      </c>
+      <c r="J62">
+        <v>400</v>
+      </c>
+      <c r="K62">
+        <v>300</v>
+      </c>
+      <c r="L62">
+        <v>350</v>
+      </c>
+      <c r="M62">
+        <v>400</v>
+      </c>
+      <c r="N62">
+        <v>640</v>
+      </c>
+      <c r="O62">
+        <v>700</v>
+      </c>
+      <c r="P62">
+        <v>450</v>
+      </c>
+      <c r="Q62">
+        <v>800</v>
+      </c>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+    </row>
+    <row r="63" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63">
+        <v>500</v>
+      </c>
+      <c r="I63">
+        <v>300</v>
+      </c>
+      <c r="J63">
+        <v>400</v>
+      </c>
+      <c r="K63">
+        <v>300</v>
+      </c>
+      <c r="L63">
+        <v>350</v>
+      </c>
+      <c r="M63">
+        <v>400</v>
+      </c>
+      <c r="N63">
+        <v>640</v>
+      </c>
+      <c r="O63">
+        <v>700</v>
+      </c>
+      <c r="P63">
+        <v>450</v>
+      </c>
+      <c r="Q63">
+        <v>800</v>
+      </c>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+    </row>
+    <row r="64" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64">
+        <v>600</v>
+      </c>
+      <c r="I64">
+        <v>300</v>
+      </c>
+      <c r="J64">
+        <v>600</v>
+      </c>
+      <c r="K64">
+        <v>300</v>
+      </c>
+      <c r="L64">
+        <v>500</v>
+      </c>
+      <c r="M64">
+        <v>400</v>
+      </c>
+      <c r="N64">
+        <v>640</v>
+      </c>
+      <c r="O64">
+        <v>700</v>
+      </c>
+      <c r="P64">
+        <v>450</v>
+      </c>
+      <c r="Q64">
+        <v>800</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+    </row>
+    <row r="65" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65">
+        <v>566</v>
+      </c>
+      <c r="I65">
+        <v>300</v>
+      </c>
+      <c r="J65">
+        <v>400</v>
+      </c>
+      <c r="K65">
+        <v>300</v>
+      </c>
+      <c r="L65">
+        <v>350</v>
+      </c>
+      <c r="M65">
+        <v>400</v>
+      </c>
+      <c r="N65">
+        <v>640</v>
+      </c>
+      <c r="O65">
+        <v>700</v>
+      </c>
+      <c r="P65">
+        <v>450</v>
+      </c>
+      <c r="Q65">
+        <v>800</v>
+      </c>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+    </row>
+    <row r="66" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66">
+        <v>500</v>
+      </c>
+      <c r="I66">
+        <v>300</v>
+      </c>
+      <c r="J66">
+        <v>400</v>
+      </c>
+      <c r="K66">
+        <v>300</v>
+      </c>
+      <c r="L66">
+        <v>350</v>
+      </c>
+      <c r="M66">
+        <v>400</v>
+      </c>
+      <c r="N66">
+        <v>640</v>
+      </c>
+      <c r="O66">
+        <v>700</v>
+      </c>
+      <c r="P66">
+        <v>450</v>
+      </c>
+      <c r="Q66">
+        <v>800</v>
+      </c>
+      <c r="R66">
+        <v>400</v>
+      </c>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+    </row>
+    <row r="67" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67">
+        <v>600</v>
+      </c>
+      <c r="I67">
+        <v>300</v>
+      </c>
+      <c r="J67">
+        <v>600</v>
+      </c>
+      <c r="K67">
+        <v>300</v>
+      </c>
+      <c r="L67">
+        <v>500</v>
+      </c>
+      <c r="M67">
+        <v>400</v>
+      </c>
+      <c r="N67">
+        <v>640</v>
+      </c>
+      <c r="O67">
+        <v>700</v>
+      </c>
+      <c r="P67">
+        <v>450</v>
+      </c>
+      <c r="Q67">
+        <v>800</v>
+      </c>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+    </row>
+    <row r="68" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68">
+        <v>800</v>
+      </c>
+      <c r="I68">
+        <v>300</v>
+      </c>
+      <c r="J68">
+        <v>700</v>
+      </c>
+      <c r="K68">
+        <v>300</v>
+      </c>
+      <c r="L68">
+        <v>400</v>
+      </c>
+      <c r="M68">
+        <v>400</v>
+      </c>
+      <c r="N68">
+        <v>640</v>
+      </c>
+      <c r="O68">
+        <v>700</v>
+      </c>
+      <c r="P68">
+        <v>450</v>
+      </c>
+      <c r="Q68">
+        <v>800</v>
+      </c>
+      <c r="R68">
+        <v>700</v>
+      </c>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+    </row>
+    <row r="69" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69">
+        <v>800</v>
+      </c>
+      <c r="I69">
+        <v>400</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69">
+        <v>600</v>
+      </c>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+    </row>
+    <row r="70" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70">
+        <v>800</v>
+      </c>
+      <c r="I70">
+        <v>400</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70">
+        <v>600</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+    </row>
+    <row r="71" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71">
+        <v>500</v>
+      </c>
+      <c r="I71">
+        <v>300</v>
+      </c>
+      <c r="J71">
+        <v>400</v>
+      </c>
+      <c r="K71">
+        <v>300</v>
+      </c>
+      <c r="L71">
+        <v>350</v>
+      </c>
+      <c r="M71">
+        <v>400</v>
+      </c>
+      <c r="N71">
+        <v>640</v>
+      </c>
+      <c r="O71">
+        <v>700</v>
+      </c>
+      <c r="P71">
+        <v>450</v>
+      </c>
+      <c r="Q71">
+        <v>800</v>
+      </c>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71">
+        <v>400</v>
+      </c>
+      <c r="W71">
+        <v>900</v>
+      </c>
+      <c r="X71">
+        <v>400</v>
+      </c>
+      <c r="Y71">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72">
+        <v>500</v>
+      </c>
+      <c r="I72">
+        <v>300</v>
+      </c>
+      <c r="J72">
+        <v>400</v>
+      </c>
+      <c r="K72">
+        <v>300</v>
+      </c>
+      <c r="L72">
+        <v>350</v>
+      </c>
+      <c r="M72">
+        <v>400</v>
+      </c>
+      <c r="N72">
+        <v>640</v>
+      </c>
+      <c r="O72">
+        <v>700</v>
+      </c>
+      <c r="P72">
+        <v>450</v>
+      </c>
+      <c r="Q72">
+        <v>800</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72">
+        <v>400</v>
+      </c>
+      <c r="W72">
+        <v>900</v>
+      </c>
+      <c r="X72">
+        <v>400</v>
+      </c>
+      <c r="Y72">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+    </row>
+    <row r="74" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74">
+        <v>566</v>
+      </c>
+      <c r="I74">
+        <v>300</v>
+      </c>
+      <c r="J74">
+        <v>400</v>
+      </c>
+      <c r="K74">
+        <v>300</v>
+      </c>
+      <c r="L74">
+        <v>350</v>
+      </c>
+      <c r="M74">
+        <v>400</v>
+      </c>
+      <c r="N74">
+        <v>640</v>
+      </c>
+      <c r="O74">
+        <v>700</v>
+      </c>
+      <c r="P74">
+        <v>450</v>
+      </c>
+      <c r="Q74">
+        <v>800</v>
+      </c>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+    </row>
+    <row r="75" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75">
+        <v>500</v>
+      </c>
+      <c r="I75">
+        <v>300</v>
+      </c>
+      <c r="J75">
+        <v>400</v>
+      </c>
+      <c r="K75">
+        <v>300</v>
+      </c>
+      <c r="L75">
+        <v>350</v>
+      </c>
+      <c r="M75">
+        <v>400</v>
+      </c>
+      <c r="N75">
+        <v>640</v>
+      </c>
+      <c r="O75">
+        <v>700</v>
+      </c>
+      <c r="P75">
+        <v>450</v>
+      </c>
+      <c r="Q75">
+        <v>800</v>
+      </c>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+    </row>
+    <row r="76" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76">
+        <v>600</v>
+      </c>
+      <c r="I76">
+        <v>300</v>
+      </c>
+      <c r="J76">
+        <v>600</v>
+      </c>
+      <c r="K76">
+        <v>300</v>
+      </c>
+      <c r="L76">
+        <v>500</v>
+      </c>
+      <c r="M76">
+        <v>400</v>
+      </c>
+      <c r="N76">
+        <v>640</v>
+      </c>
+      <c r="O76">
+        <v>700</v>
+      </c>
+      <c r="P76">
+        <v>450</v>
+      </c>
+      <c r="Q76">
+        <v>800</v>
+      </c>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+    </row>
+    <row r="77" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77">
+        <v>566</v>
+      </c>
+      <c r="I77">
+        <v>300</v>
+      </c>
+      <c r="J77">
+        <v>400</v>
+      </c>
+      <c r="K77">
+        <v>300</v>
+      </c>
+      <c r="L77">
+        <v>350</v>
+      </c>
+      <c r="M77">
+        <v>400</v>
+      </c>
+      <c r="N77">
+        <v>640</v>
+      </c>
+      <c r="O77">
+        <v>700</v>
+      </c>
+      <c r="P77">
+        <v>450</v>
+      </c>
+      <c r="Q77">
+        <v>800</v>
+      </c>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+    </row>
+    <row r="78" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78">
+        <v>500</v>
+      </c>
+      <c r="I78">
+        <v>300</v>
+      </c>
+      <c r="J78">
+        <v>400</v>
+      </c>
+      <c r="K78">
+        <v>300</v>
+      </c>
+      <c r="L78">
+        <v>350</v>
+      </c>
+      <c r="M78">
+        <v>400</v>
+      </c>
+      <c r="N78">
+        <v>640</v>
+      </c>
+      <c r="O78">
+        <v>700</v>
+      </c>
+      <c r="P78">
+        <v>450</v>
+      </c>
+      <c r="Q78">
+        <v>800</v>
+      </c>
+      <c r="R78">
+        <v>400</v>
+      </c>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+    </row>
+    <row r="79" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79">
+        <v>300</v>
+      </c>
+      <c r="J79">
+        <v>600</v>
+      </c>
+      <c r="K79">
+        <v>300</v>
+      </c>
+      <c r="L79">
+        <v>500</v>
+      </c>
+      <c r="M79">
+        <v>400</v>
+      </c>
+      <c r="N79">
+        <v>640</v>
+      </c>
+      <c r="O79">
+        <v>700</v>
+      </c>
+      <c r="P79">
+        <v>450</v>
+      </c>
+      <c r="Q79">
+        <v>800</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+    </row>
+    <row r="80" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80">
+        <v>800</v>
+      </c>
+      <c r="I80">
+        <v>300</v>
+      </c>
+      <c r="J80">
+        <v>700</v>
+      </c>
+      <c r="K80">
+        <v>300</v>
+      </c>
+      <c r="L80">
+        <v>400</v>
+      </c>
+      <c r="M80">
+        <v>400</v>
+      </c>
+      <c r="N80">
+        <v>640</v>
+      </c>
+      <c r="O80">
+        <v>700</v>
+      </c>
+      <c r="P80">
+        <v>450</v>
+      </c>
+      <c r="Q80">
+        <v>800</v>
+      </c>
+      <c r="R80">
+        <v>700</v>
+      </c>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+    </row>
+    <row r="81" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81">
+        <v>800</v>
+      </c>
+      <c r="I81">
+        <v>400</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81">
+        <v>600</v>
+      </c>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+    </row>
+    <row r="82" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82">
+        <v>800</v>
+      </c>
+      <c r="I82">
+        <v>400</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82">
+        <v>600</v>
+      </c>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+    </row>
+    <row r="83" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83">
+        <v>500</v>
+      </c>
+      <c r="I83">
+        <v>300</v>
+      </c>
+      <c r="J83">
+        <v>400</v>
+      </c>
+      <c r="K83">
+        <v>300</v>
+      </c>
+      <c r="L83">
+        <v>350</v>
+      </c>
+      <c r="M83">
+        <v>400</v>
+      </c>
+      <c r="N83">
+        <v>640</v>
+      </c>
+      <c r="O83">
+        <v>700</v>
+      </c>
+      <c r="P83">
+        <v>450</v>
+      </c>
+      <c r="Q83">
+        <v>800</v>
+      </c>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83">
+        <v>400</v>
+      </c>
+      <c r="W83">
+        <v>900</v>
+      </c>
+      <c r="X83">
+        <v>400</v>
+      </c>
+      <c r="Y83">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84">
+        <v>500</v>
+      </c>
+      <c r="I84">
+        <v>300</v>
+      </c>
+      <c r="J84">
+        <v>400</v>
+      </c>
+      <c r="K84">
+        <v>300</v>
+      </c>
+      <c r="L84">
+        <v>350</v>
+      </c>
+      <c r="M84">
+        <v>400</v>
+      </c>
+      <c r="N84">
+        <v>640</v>
+      </c>
+      <c r="O84">
+        <v>700</v>
+      </c>
+      <c r="P84">
+        <v>450</v>
+      </c>
+      <c r="Q84">
+        <v>800</v>
+      </c>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84">
+        <v>400</v>
+      </c>
+      <c r="W84">
+        <v>900</v>
+      </c>
+      <c r="X84">
+        <v>400</v>
+      </c>
+      <c r="Y84">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85">
+        <v>400</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+    </row>
+    <row r="86" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86">
+        <v>566</v>
+      </c>
+      <c r="I86">
+        <v>300</v>
+      </c>
+      <c r="J86">
+        <v>400</v>
+      </c>
+      <c r="K86">
+        <v>300</v>
+      </c>
+      <c r="L86">
+        <v>350</v>
+      </c>
+      <c r="M86">
+        <v>400</v>
+      </c>
+      <c r="N86">
+        <v>640</v>
+      </c>
+      <c r="O86">
+        <v>700</v>
+      </c>
+      <c r="P86">
+        <v>450</v>
+      </c>
+      <c r="Q86">
+        <v>800</v>
+      </c>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+    </row>
+    <row r="87" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87">
+        <v>500</v>
+      </c>
+      <c r="I87">
+        <v>300</v>
+      </c>
+      <c r="J87">
+        <v>400</v>
+      </c>
+      <c r="K87">
+        <v>300</v>
+      </c>
+      <c r="L87">
+        <v>350</v>
+      </c>
+      <c r="M87">
+        <v>400</v>
+      </c>
+      <c r="N87">
+        <v>640</v>
+      </c>
+      <c r="O87">
+        <v>700</v>
+      </c>
+      <c r="P87">
+        <v>450</v>
+      </c>
+      <c r="Q87">
+        <v>800</v>
+      </c>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+    </row>
+    <row r="88" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88">
+        <v>600</v>
+      </c>
+      <c r="I88">
+        <v>300</v>
+      </c>
+      <c r="J88">
+        <v>600</v>
+      </c>
+      <c r="K88">
+        <v>300</v>
+      </c>
+      <c r="L88">
+        <v>500</v>
+      </c>
+      <c r="M88">
+        <v>400</v>
+      </c>
+      <c r="N88">
+        <v>640</v>
+      </c>
+      <c r="O88">
+        <v>700</v>
+      </c>
+      <c r="P88">
+        <v>450</v>
+      </c>
+      <c r="Q88">
+        <v>800</v>
+      </c>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+    </row>
+    <row r="89" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89">
+        <v>566</v>
+      </c>
+      <c r="I89">
+        <v>300</v>
+      </c>
+      <c r="J89">
+        <v>400</v>
+      </c>
+      <c r="K89">
+        <v>300</v>
+      </c>
+      <c r="L89">
+        <v>350</v>
+      </c>
+      <c r="M89">
+        <v>400</v>
+      </c>
+      <c r="N89">
+        <v>640</v>
+      </c>
+      <c r="O89">
+        <v>700</v>
+      </c>
+      <c r="P89">
+        <v>450</v>
+      </c>
+      <c r="Q89">
+        <v>800</v>
+      </c>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+    </row>
+    <row r="90" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90">
+        <v>500</v>
+      </c>
+      <c r="I90">
+        <v>300</v>
+      </c>
+      <c r="J90">
+        <v>400</v>
+      </c>
+      <c r="K90">
+        <v>300</v>
+      </c>
+      <c r="L90">
+        <v>350</v>
+      </c>
+      <c r="M90">
+        <v>400</v>
+      </c>
+      <c r="N90">
+        <v>640</v>
+      </c>
+      <c r="O90">
+        <v>700</v>
+      </c>
+      <c r="P90">
+        <v>450</v>
+      </c>
+      <c r="Q90">
+        <v>800</v>
+      </c>
+      <c r="R90">
+        <v>400</v>
+      </c>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+    </row>
+    <row r="91" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91">
+        <v>600</v>
+      </c>
+      <c r="I91">
+        <v>300</v>
+      </c>
+      <c r="J91">
+        <v>600</v>
+      </c>
+      <c r="K91">
+        <v>300</v>
+      </c>
+      <c r="L91">
+        <v>500</v>
+      </c>
+      <c r="M91">
+        <v>400</v>
+      </c>
+      <c r="N91">
+        <v>640</v>
+      </c>
+      <c r="O91">
+        <v>700</v>
+      </c>
+      <c r="P91">
+        <v>450</v>
+      </c>
+      <c r="Q91">
+        <v>800</v>
+      </c>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+    </row>
+    <row r="92" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92">
+        <v>800</v>
+      </c>
+      <c r="I92">
+        <v>300</v>
+      </c>
+      <c r="J92">
+        <v>700</v>
+      </c>
+      <c r="K92">
+        <v>300</v>
+      </c>
+      <c r="L92">
+        <v>400</v>
+      </c>
+      <c r="M92">
+        <v>400</v>
+      </c>
+      <c r="N92">
+        <v>640</v>
+      </c>
+      <c r="O92">
+        <v>700</v>
+      </c>
+      <c r="P92">
+        <v>450</v>
+      </c>
+      <c r="Q92">
+        <v>800</v>
+      </c>
+      <c r="R92">
+        <v>700</v>
+      </c>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+    </row>
+    <row r="93" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93">
+        <v>800</v>
+      </c>
+      <c r="I93">
+        <v>400</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93">
+        <v>600</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+    </row>
+    <row r="94" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94">
+        <v>800</v>
+      </c>
+      <c r="I94">
+        <v>400</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94">
+        <v>600</v>
+      </c>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+    </row>
+    <row r="95" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95">
+        <v>500</v>
+      </c>
+      <c r="I95">
+        <v>300</v>
+      </c>
+      <c r="J95">
+        <v>400</v>
+      </c>
+      <c r="K95">
+        <v>300</v>
+      </c>
+      <c r="L95">
+        <v>350</v>
+      </c>
+      <c r="M95">
+        <v>400</v>
+      </c>
+      <c r="N95">
+        <v>640</v>
+      </c>
+      <c r="O95">
+        <v>700</v>
+      </c>
+      <c r="P95">
+        <v>450</v>
+      </c>
+      <c r="Q95">
+        <v>800</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95">
+        <v>400</v>
+      </c>
+      <c r="W95">
+        <v>900</v>
+      </c>
+      <c r="X95">
+        <v>400</v>
+      </c>
+      <c r="Y95">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96">
+        <v>500</v>
+      </c>
+      <c r="I96">
+        <v>300</v>
+      </c>
+      <c r="J96">
+        <v>400</v>
+      </c>
+      <c r="K96">
+        <v>300</v>
+      </c>
+      <c r="L96">
+        <v>350</v>
+      </c>
+      <c r="M96">
+        <v>400</v>
+      </c>
+      <c r="N96">
+        <v>640</v>
+      </c>
+      <c r="O96">
+        <v>700</v>
+      </c>
+      <c r="P96">
+        <v>450</v>
+      </c>
+      <c r="Q96">
+        <v>800</v>
+      </c>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96">
+        <v>400</v>
+      </c>
+      <c r="W96">
+        <v>900</v>
+      </c>
+      <c r="X96">
+        <v>400</v>
+      </c>
+      <c r="Y96">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97">
+        <v>700</v>
+      </c>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,10 +5759,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116FF029-E64B-4237-A8C0-D94515D54FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +5779,7 @@
     <col min="26" max="26" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,67 +5802,67 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1376,11 +5940,11 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>(I2+K2+L2+N2+O2+Q2+R2+T2+U2+W2+X2+Z2)*4000-(J2+M2+P2+S2+V2+Y2)*4000</f>
+        <f t="shared" ref="AA2:AA12" si="0">(I2+K2+L2+N2+O2+Q2+R2+T2+U2+W2+X2+Z2)*4000-(J2+M2+P2+S2+V2+Y2)*4000</f>
         <v>504000</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1458,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA12" si="0">(I3+K3+L3+N3+O3+Q3+R3+T3+U3+W3+X3+Z3)*4000-(J3+M3+P3+S3+V3+Y3)*4000</f>
+        <f t="shared" si="0"/>
         <v>504000</v>
       </c>
     </row>
@@ -1546,7 +6110,7 @@
         <v>504000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1628,7 +6192,7 @@
         <v>504000</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2051,13 +6615,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>776348</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -2132,13 +6696,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>

--- a/BaseDatasheet.xlsx
+++ b/BaseDatasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyVibe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A940738-06CB-49E3-989F-42C9C5E7C1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A75FD3-D964-427B-B521-D8939F0A7078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="81">
   <si>
     <t>ServiceLine</t>
   </si>
@@ -197,9 +197,6 @@
     <t>650936</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>BillingRateByMonth</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>September Forecast</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -679,10 +679,10 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -701,6 +701,9 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
@@ -750,6 +753,9 @@
       </c>
       <c r="E3" t="s">
         <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -854,6 +860,9 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
@@ -903,6 +912,9 @@
       </c>
       <c r="E6" t="s">
         <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1130,6 +1142,9 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
@@ -1192,6 +1207,9 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
@@ -1254,6 +1272,9 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
@@ -1277,6 +1298,9 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
@@ -1326,6 +1350,9 @@
       </c>
       <c r="E15" t="s">
         <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -1430,6 +1457,9 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
@@ -1479,6 +1509,9 @@
       </c>
       <c r="E18" t="s">
         <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1706,6 +1739,9 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
@@ -1768,6 +1804,9 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
@@ -1830,6 +1869,9 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
@@ -1850,6 +1892,9 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
@@ -1899,6 +1944,9 @@
       </c>
       <c r="E27" t="s">
         <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -2003,6 +2051,9 @@
       <c r="E29" t="s">
         <v>26</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G29" t="s">
         <v>27</v>
       </c>
@@ -2052,6 +2103,9 @@
       </c>
       <c r="E30" t="s">
         <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -2279,6 +2333,9 @@
       <c r="E35" t="s">
         <v>26</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
@@ -2341,6 +2398,9 @@
       <c r="E36" t="s">
         <v>26</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
@@ -2403,6 +2463,9 @@
       <c r="E37" t="s">
         <v>26</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
@@ -2426,6 +2489,9 @@
       <c r="E38" t="s">
         <v>26</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
@@ -2475,6 +2541,9 @@
       </c>
       <c r="E39" t="s">
         <v>26</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -2579,6 +2648,9 @@
       <c r="E41" t="s">
         <v>26</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G41" t="s">
         <v>27</v>
       </c>
@@ -2628,6 +2700,9 @@
       </c>
       <c r="E42" t="s">
         <v>26</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -2855,6 +2930,9 @@
       <c r="E47" t="s">
         <v>26</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G47" t="s">
         <v>27</v>
       </c>
@@ -2917,6 +2995,9 @@
       <c r="E48" t="s">
         <v>26</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G48" t="s">
         <v>27</v>
       </c>
@@ -2979,8 +3060,8 @@
       <c r="E49" t="s">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
-        <v>58</v>
+      <c r="F49" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -3002,7 +3083,9 @@
       <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="F50"/>
+      <c r="F50" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
@@ -3061,7 +3144,9 @@
       <c r="E51" t="s">
         <v>26</v>
       </c>
-      <c r="F51"/>
+      <c r="F51" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3266,9 @@
       <c r="E53" t="s">
         <v>26</v>
       </c>
-      <c r="F53"/>
+      <c r="F53" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
@@ -3240,7 +3327,9 @@
       <c r="E54" t="s">
         <v>26</v>
       </c>
-      <c r="F54"/>
+      <c r="F54" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
@@ -3519,7 +3608,9 @@
       <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="F59"/>
+      <c r="F59" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G59" t="s">
         <v>27</v>
       </c>
@@ -3586,7 +3677,9 @@
       <c r="E60" t="s">
         <v>26</v>
       </c>
-      <c r="F60"/>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G60" t="s">
         <v>27</v>
       </c>
@@ -3653,7 +3746,9 @@
       <c r="E61" t="s">
         <v>26</v>
       </c>
-      <c r="F61"/>
+      <c r="F61" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
@@ -3694,7 +3789,9 @@
       <c r="E62" t="s">
         <v>26</v>
       </c>
-      <c r="F62"/>
+      <c r="F62" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G62" t="s">
         <v>27</v>
       </c>
@@ -3753,7 +3850,9 @@
       <c r="E63" t="s">
         <v>26</v>
       </c>
-      <c r="F63"/>
+      <c r="F63" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G63" t="s">
         <v>27</v>
       </c>
@@ -3873,7 +3972,9 @@
       <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="F65"/>
+      <c r="F65" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G65" t="s">
         <v>27</v>
       </c>
@@ -3932,7 +4033,9 @@
       <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="F66"/>
+      <c r="F66" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G66" t="s">
         <v>27</v>
       </c>
@@ -4211,7 +4314,9 @@
       <c r="E71" t="s">
         <v>26</v>
       </c>
-      <c r="F71"/>
+      <c r="F71" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G71" t="s">
         <v>27</v>
       </c>
@@ -4278,7 +4383,9 @@
       <c r="E72" t="s">
         <v>26</v>
       </c>
-      <c r="F72"/>
+      <c r="F72" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
@@ -4345,7 +4452,9 @@
       <c r="E73" t="s">
         <v>26</v>
       </c>
-      <c r="F73"/>
+      <c r="F73" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
@@ -4384,7 +4493,9 @@
       <c r="E74" t="s">
         <v>26</v>
       </c>
-      <c r="F74"/>
+      <c r="F74" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
@@ -4443,7 +4554,9 @@
       <c r="E75" t="s">
         <v>26</v>
       </c>
-      <c r="F75"/>
+      <c r="F75" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
@@ -4563,7 +4676,9 @@
       <c r="E77" t="s">
         <v>26</v>
       </c>
-      <c r="F77"/>
+      <c r="F77" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G77" t="s">
         <v>27</v>
       </c>
@@ -4622,7 +4737,9 @@
       <c r="E78" t="s">
         <v>26</v>
       </c>
-      <c r="F78"/>
+      <c r="F78" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
@@ -4901,7 +5018,9 @@
       <c r="E83" t="s">
         <v>26</v>
       </c>
-      <c r="F83"/>
+      <c r="F83" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G83" t="s">
         <v>27</v>
       </c>
@@ -4968,7 +5087,9 @@
       <c r="E84" t="s">
         <v>26</v>
       </c>
-      <c r="F84"/>
+      <c r="F84" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G84" t="s">
         <v>27</v>
       </c>
@@ -5035,7 +5156,9 @@
       <c r="E85" t="s">
         <v>26</v>
       </c>
-      <c r="F85"/>
+      <c r="F85" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G85" t="s">
         <v>27</v>
       </c>
@@ -5076,7 +5199,9 @@
       <c r="E86" t="s">
         <v>26</v>
       </c>
-      <c r="F86"/>
+      <c r="F86" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G86" t="s">
         <v>27</v>
       </c>
@@ -5135,7 +5260,9 @@
       <c r="E87" t="s">
         <v>26</v>
       </c>
-      <c r="F87"/>
+      <c r="F87" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G87" t="s">
         <v>27</v>
       </c>
@@ -5255,7 +5382,9 @@
       <c r="E89" t="s">
         <v>26</v>
       </c>
-      <c r="F89"/>
+      <c r="F89" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G89" t="s">
         <v>27</v>
       </c>
@@ -5314,7 +5443,9 @@
       <c r="E90" t="s">
         <v>26</v>
       </c>
-      <c r="F90"/>
+      <c r="F90" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G90" t="s">
         <v>27</v>
       </c>
@@ -5593,7 +5724,9 @@
       <c r="E95" t="s">
         <v>26</v>
       </c>
-      <c r="F95"/>
+      <c r="F95" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G95" t="s">
         <v>27</v>
       </c>
@@ -5660,7 +5793,9 @@
       <c r="E96" t="s">
         <v>26</v>
       </c>
-      <c r="F96"/>
+      <c r="F96" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G96" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5862,9 @@
       <c r="E97" t="s">
         <v>26</v>
       </c>
-      <c r="F97"/>
+      <c r="F97" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G97" t="s">
         <v>27</v>
       </c>
@@ -5802,64 +5939,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">

--- a/BaseDatasheet.xlsx
+++ b/BaseDatasheet.xlsx
@@ -8907,7 +8907,7 @@
       <c r="W2" s="0" t="n"/>
       <c r="X2" s="0" t="n"/>
       <c r="Y2" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>566</v>
       </c>
       <c r="Y2" t="n">
-        <v>96000</v>
+        <v>76000</v>
       </c>
       <c r="Z2" t="n">
         <v>400</v>

--- a/BaseDatasheet.xlsx
+++ b/BaseDatasheet.xlsx
@@ -8622,7 +8622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9024,7 +9024,7 @@
       <c r="W3" s="0" t="n"/>
       <c r="X3" s="0" t="n"/>
       <c r="Y3" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>0</v>
@@ -11732,6 +11732,135 @@
       <c r="AP26" s="0" t="n"/>
       <c r="AQ26" s="0" t="n"/>
     </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr"/>
+      <c r="C27" s="0" t="inlineStr"/>
+      <c r="D27" s="0" t="inlineStr"/>
+      <c r="E27" s="0" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr"/>
+      <c r="I27" s="0" t="inlineStr"/>
+      <c r="J27" s="0" t="inlineStr"/>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>AID0026</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>PTest</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr"/>
+      <c r="N27" s="0" t="inlineStr"/>
+      <c r="O27" s="0" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="P27" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q27" s="0" t="inlineStr"/>
+      <c r="R27" s="0" t="inlineStr"/>
+      <c r="S27" s="0" t="inlineStr"/>
+      <c r="T27" s="0" t="inlineStr"/>
+      <c r="U27" s="0" t="inlineStr"/>
+      <c r="V27" s="0" t="inlineStr"/>
+      <c r="W27" s="0" t="inlineStr"/>
+      <c r="X27" s="0" t="inlineStr"/>
+      <c r="Y27" s="0" t="inlineStr"/>
+      <c r="Z27" s="0" t="inlineStr"/>
+      <c r="AA27" s="0" t="inlineStr"/>
+      <c r="AB27" s="0" t="inlineStr"/>
+      <c r="AC27" s="0" t="inlineStr"/>
+      <c r="AD27" s="0" t="inlineStr"/>
+      <c r="AE27" s="0" t="inlineStr"/>
+      <c r="AF27" s="0" t="inlineStr"/>
+      <c r="AG27" s="0" t="inlineStr"/>
+      <c r="AH27" s="0" t="inlineStr"/>
+      <c r="AI27" s="0" t="inlineStr"/>
+      <c r="AJ27" s="0" t="inlineStr"/>
+      <c r="AK27" s="0" t="inlineStr"/>
+      <c r="AL27" s="0" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>AID0027</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ptest1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11743,7 +11872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11752,3744 +11881,2803 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>Vertical</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>Sub Vertical</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Parent Customer</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Project description</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>ServiceLine</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>AssociateName</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>AssociateID</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Project Name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>PracticeLine</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>Sub-Region</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>Onshore/Offshore</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="0" t="inlineStr">
         <is>
           <t>Service Line</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>Methodology</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="0" t="inlineStr">
         <is>
           <t>BL/ML</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>Digital Category</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="0" t="inlineStr">
         <is>
           <t>Specifics</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="0" t="inlineStr">
         <is>
           <t>ProjectType</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>Demand Start Date</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>Resource Start Date</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="0" t="inlineStr">
         <is>
           <t>Hourly Rate (USD)</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="0" t="inlineStr">
         <is>
           <t>Day Rate (USD)</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="0" t="inlineStr">
         <is>
           <t>Jan Actuals</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="0" t="inlineStr">
         <is>
           <t>Jan Forecast</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>Feb Actuals</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="0" t="inlineStr">
         <is>
           <t>Feb Forecast</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="0" t="inlineStr">
         <is>
           <t>March Actuals</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="0" t="inlineStr">
         <is>
           <t>March Forecast</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="0" t="inlineStr">
         <is>
           <t>April Actuals</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="0" t="inlineStr">
         <is>
           <t>April Forecast</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="0" t="inlineStr">
         <is>
           <t>May Actuals</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="0" t="inlineStr">
         <is>
           <t>May Forecast</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="0" t="inlineStr">
         <is>
           <t>June Actuals</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="0" t="inlineStr">
         <is>
           <t>June Forecast</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="0" t="inlineStr">
         <is>
           <t>July Actuals</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="0" t="inlineStr">
         <is>
           <t>JulyForecast</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="0" t="inlineStr">
         <is>
           <t>August Actuals</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="0" t="inlineStr">
         <is>
           <t>August Forecast</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="0" t="inlineStr">
         <is>
           <t>September Actuals</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="0" t="inlineStr">
         <is>
           <t>September Forecast</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v/>
-      </c>
-      <c r="B2" t="n">
-        <v/>
-      </c>
-      <c r="C2" t="n">
-        <v/>
-      </c>
-      <c r="D2" t="n">
-        <v/>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="A2" s="0" t="n"/>
+      <c r="B2" s="0" t="n"/>
+      <c r="C2" s="0" t="n"/>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>QEA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="0" t="inlineStr">
         <is>
           <t>Pam Beesley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>AID0001</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>NFT</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
-      <c r="M2" t="n">
-        <v/>
-      </c>
-      <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="n">
-        <v/>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="L2" s="0" t="n"/>
+      <c r="M2" s="0" t="n"/>
+      <c r="N2" s="0" t="n"/>
+      <c r="O2" s="0" t="n"/>
+      <c r="P2" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v/>
-      </c>
-      <c r="W2" t="n">
-        <v/>
-      </c>
-      <c r="X2" t="n">
+      <c r="Q2" s="0" t="n"/>
+      <c r="R2" s="0" t="n"/>
+      <c r="S2" s="0" t="n"/>
+      <c r="T2" s="0" t="n"/>
+      <c r="U2" s="0" t="n"/>
+      <c r="V2" s="0" t="n"/>
+      <c r="W2" s="0" t="n"/>
+      <c r="X2" s="0" t="n">
         <v>566</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="0" t="n">
         <v>76000</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="0" t="n">
         <v>92000</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="0" t="n">
         <v>104000</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH2" t="n">
-        <v/>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AH2" s="0" t="n"/>
+      <c r="AI2" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ2" t="n">
-        <v/>
-      </c>
-      <c r="AK2" t="n">
-        <v/>
-      </c>
-      <c r="AL2" t="n">
-        <v/>
-      </c>
-      <c r="AM2" t="n">
-        <v/>
-      </c>
-      <c r="AN2" t="n">
-        <v/>
-      </c>
-      <c r="AO2" t="n">
-        <v/>
-      </c>
+      <c r="AJ2" s="0" t="n"/>
+      <c r="AK2" s="0" t="n"/>
+      <c r="AL2" s="0" t="n"/>
+      <c r="AM2" s="0" t="n"/>
+      <c r="AN2" s="0" t="n"/>
+      <c r="AO2" s="0" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="A3" s="0" t="n"/>
+      <c r="B3" s="0" t="n"/>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="0" t="n"/>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>QEA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>Dwight Schrute</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>AID0002</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>Rest</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>NFT</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="L3" s="0" t="n"/>
+      <c r="M3" s="0" t="n"/>
+      <c r="N3" s="0" t="n"/>
+      <c r="O3" s="0" t="n"/>
+      <c r="P3" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
+      <c r="Q3" s="0" t="n"/>
+      <c r="R3" s="0" t="n"/>
+      <c r="S3" s="0" t="n"/>
+      <c r="T3" s="0" t="n"/>
+      <c r="U3" s="0" t="n"/>
+      <c r="V3" s="0" t="n"/>
+      <c r="W3" s="0" t="n"/>
+      <c r="X3" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="0" t="n">
+        <v>92000</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>96000</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH3" s="0" t="n"/>
+      <c r="AI3" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ3" s="0" t="n"/>
+      <c r="AK3" s="0" t="n"/>
+      <c r="AL3" s="0" t="n"/>
+      <c r="AM3" s="0" t="n"/>
+      <c r="AN3" s="0" t="n"/>
+      <c r="AO3" s="0" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n"/>
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>UI/UX</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Ruskin bond</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>AID0003</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Trest</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>QTP</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="n"/>
+      <c r="M4" s="0" t="n"/>
+      <c r="N4" s="0" t="n"/>
+      <c r="O4" s="0" t="n"/>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="n"/>
+      <c r="R4" s="0" t="n"/>
+      <c r="S4" s="0" t="n"/>
+      <c r="T4" s="0" t="n"/>
+      <c r="U4" s="0" t="n"/>
+      <c r="V4" s="0" t="n"/>
+      <c r="W4" s="0" t="n"/>
+      <c r="X4" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH4" s="0" t="n"/>
+      <c r="AI4" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ4" s="0" t="n"/>
+      <c r="AK4" s="0" t="n"/>
+      <c r="AL4" s="0" t="n"/>
+      <c r="AM4" s="0" t="n"/>
+      <c r="AN4" s="0" t="n"/>
+      <c r="AO4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Ronald Weasley</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>AID0004</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="n"/>
+      <c r="M5" s="0" t="n"/>
+      <c r="N5" s="0" t="n"/>
+      <c r="O5" s="0" t="n"/>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="n"/>
+      <c r="R5" s="0" t="n"/>
+      <c r="S5" s="0" t="n"/>
+      <c r="T5" s="0" t="n"/>
+      <c r="U5" s="0" t="n"/>
+      <c r="V5" s="0" t="n"/>
+      <c r="W5" s="0" t="n"/>
+      <c r="X5" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>92000</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>92000</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH5" s="0" t="n"/>
+      <c r="AI5" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ5" s="0" t="n"/>
+      <c r="AK5" s="0" t="n"/>
+      <c r="AL5" s="0" t="n"/>
+      <c r="AM5" s="0" t="n"/>
+      <c r="AN5" s="0" t="n"/>
+      <c r="AO5" s="0" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Hermione</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>AID0005</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Rest</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="n"/>
+      <c r="M6" s="0" t="n"/>
+      <c r="N6" s="0" t="n"/>
+      <c r="O6" s="0" t="n"/>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q6" s="0" t="n"/>
+      <c r="R6" s="0" t="n"/>
+      <c r="S6" s="0" t="n"/>
+      <c r="T6" s="0" t="n"/>
+      <c r="U6" s="0" t="n"/>
+      <c r="V6" s="0" t="n"/>
+      <c r="W6" s="0" t="n"/>
+      <c r="X6" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>96000</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE6" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AF6" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AI6" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ6" s="0" t="n"/>
+      <c r="AK6" s="0" t="n"/>
+      <c r="AL6" s="0" t="n"/>
+      <c r="AM6" s="0" t="n"/>
+      <c r="AN6" s="0" t="n"/>
+      <c r="AO6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>UI/UX</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>Snape</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>AID0006</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Trest</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>QTP</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
+      <c r="N7" s="0" t="n"/>
+      <c r="O7" s="0" t="n"/>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="n"/>
+      <c r="R7" s="0" t="n"/>
+      <c r="S7" s="0" t="n"/>
+      <c r="T7" s="0" t="n"/>
+      <c r="U7" s="0" t="n"/>
+      <c r="V7" s="0" t="n"/>
+      <c r="W7" s="0" t="n"/>
+      <c r="X7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA7" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH7" s="0" t="n"/>
+      <c r="AI7" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ7" s="0" t="n"/>
+      <c r="AK7" s="0" t="n"/>
+      <c r="AL7" s="0" t="n"/>
+      <c r="AM7" s="0" t="n"/>
+      <c r="AN7" s="0" t="n"/>
+      <c r="AO7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n"/>
+      <c r="B8" s="0" t="n"/>
+      <c r="C8" s="0" t="n"/>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Julian Moore</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>AID0007</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Crest</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
+      <c r="N8" s="0" t="n"/>
+      <c r="O8" s="0" t="n"/>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="n"/>
+      <c r="R8" s="0" t="n"/>
+      <c r="S8" s="0" t="n"/>
+      <c r="T8" s="0" t="n"/>
+      <c r="U8" s="0" t="n"/>
+      <c r="V8" s="0" t="n"/>
+      <c r="W8" s="0" t="n"/>
+      <c r="X8" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ8" s="0" t="n"/>
+      <c r="AK8" s="0" t="n"/>
+      <c r="AL8" s="0" t="n"/>
+      <c r="AM8" s="0" t="n"/>
+      <c r="AN8" s="0" t="n"/>
+      <c r="AO8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+      <c r="B9" s="0" t="n"/>
+      <c r="C9" s="0" t="n"/>
+      <c r="D9" s="0" t="n"/>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Tarzan</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>AID0008</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Vrest</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
+      <c r="O9" s="0" t="n"/>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="n"/>
+      <c r="R9" s="0" t="n"/>
+      <c r="S9" s="0" t="n"/>
+      <c r="T9" s="0" t="n"/>
+      <c r="U9" s="0" t="n"/>
+      <c r="V9" s="0" t="n"/>
+      <c r="W9" s="0" t="n"/>
+      <c r="X9" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z9" s="0" t="n"/>
+      <c r="AA9" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD9" s="0" t="n"/>
+      <c r="AE9" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF9" s="0" t="n"/>
+      <c r="AG9" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH9" s="0" t="n"/>
+      <c r="AI9" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ9" s="0" t="n"/>
+      <c r="AK9" s="0" t="n"/>
+      <c r="AL9" s="0" t="n"/>
+      <c r="AM9" s="0" t="n"/>
+      <c r="AN9" s="0" t="n"/>
+      <c r="AO9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n"/>
+      <c r="B10" s="0" t="n"/>
+      <c r="C10" s="0" t="n"/>
+      <c r="D10" s="0" t="n"/>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Superman</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>AID0009</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Vrest</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
+      <c r="N10" s="0" t="n"/>
+      <c r="O10" s="0" t="n"/>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="n"/>
+      <c r="R10" s="0" t="n"/>
+      <c r="S10" s="0" t="n"/>
+      <c r="T10" s="0" t="n"/>
+      <c r="U10" s="0" t="n"/>
+      <c r="V10" s="0" t="n"/>
+      <c r="W10" s="0" t="n"/>
+      <c r="X10" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z10" s="0" t="n"/>
+      <c r="AA10" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD10" s="0" t="n"/>
+      <c r="AE10" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF10" s="0" t="n"/>
+      <c r="AG10" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH10" s="0" t="n"/>
+      <c r="AI10" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ10" s="0" t="n"/>
+      <c r="AK10" s="0" t="n"/>
+      <c r="AL10" s="0" t="n"/>
+      <c r="AM10" s="0" t="n"/>
+      <c r="AN10" s="0" t="n"/>
+      <c r="AO10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+      <c r="C11" s="0" t="n"/>
+      <c r="D11" s="0" t="n"/>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Tim Halpert</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>AID0010</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Fest</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
+      <c r="O11" s="0" t="n"/>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="n"/>
+      <c r="R11" s="0" t="n"/>
+      <c r="S11" s="0" t="n"/>
+      <c r="T11" s="0" t="n"/>
+      <c r="U11" s="0" t="n"/>
+      <c r="V11" s="0" t="n"/>
+      <c r="W11" s="0" t="n"/>
+      <c r="X11" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB11" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC11" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD11" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE3" t="n">
-        <v>96000</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AE11" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF11" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG11" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AH11" s="0" t="n"/>
+      <c r="AI11" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ3" t="n">
-        <v/>
-      </c>
-      <c r="AK3" t="n">
-        <v/>
-      </c>
-      <c r="AL3" t="n">
-        <v/>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="n">
-        <v/>
-      </c>
-      <c r="AO3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="AJ11" s="0" t="n"/>
+      <c r="AK11" s="0" t="n"/>
+      <c r="AL11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO11" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+      <c r="C12" s="0" t="n"/>
+      <c r="D12" s="0" t="n"/>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Jim Halpert</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>AID0011</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Fest</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="n"/>
+      <c r="M12" s="0" t="n"/>
+      <c r="N12" s="0" t="n"/>
+      <c r="O12" s="0" t="n"/>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="n"/>
+      <c r="R12" s="0" t="n"/>
+      <c r="S12" s="0" t="n"/>
+      <c r="T12" s="0" t="n"/>
+      <c r="U12" s="0" t="n"/>
+      <c r="V12" s="0" t="n"/>
+      <c r="W12" s="0" t="n"/>
+      <c r="X12" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH12" s="0" t="n"/>
+      <c r="AI12" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ12" s="0" t="n"/>
+      <c r="AK12" s="0" t="n"/>
+      <c r="AL12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO12" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+      <c r="B13" s="0" t="n"/>
+      <c r="C13" s="0" t="n"/>
+      <c r="D13" s="0" t="n"/>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>AID0012</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>QTest</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="n"/>
+      <c r="M13" s="0" t="n"/>
+      <c r="N13" s="0" t="n"/>
+      <c r="O13" s="0" t="n"/>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="n"/>
+      <c r="R13" s="0" t="n"/>
+      <c r="S13" s="0" t="n"/>
+      <c r="T13" s="0" t="n"/>
+      <c r="U13" s="0" t="n"/>
+      <c r="V13" s="0" t="n"/>
+      <c r="W13" s="0" t="n"/>
+      <c r="X13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z13" s="0" t="n"/>
+      <c r="AA13" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB13" s="0" t="n"/>
+      <c r="AC13" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD13" s="0" t="n"/>
+      <c r="AE13" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF13" s="0" t="n"/>
+      <c r="AG13" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH13" s="0" t="n"/>
+      <c r="AI13" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ13" s="0" t="n"/>
+      <c r="AK13" s="0" t="n"/>
+      <c r="AL13" s="0" t="n"/>
+      <c r="AM13" s="0" t="n"/>
+      <c r="AN13" s="0" t="n"/>
+      <c r="AO13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+      <c r="B14" s="0" t="n"/>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Miachel Scarn</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>AID0013</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="n"/>
+      <c r="M14" s="0" t="n"/>
+      <c r="N14" s="0" t="n"/>
+      <c r="O14" s="0" t="n"/>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="n"/>
+      <c r="R14" s="0" t="n"/>
+      <c r="S14" s="0" t="n"/>
+      <c r="T14" s="0" t="n"/>
+      <c r="U14" s="0" t="n"/>
+      <c r="V14" s="0" t="n"/>
+      <c r="W14" s="0" t="n"/>
+      <c r="X14" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH14" s="0" t="n"/>
+      <c r="AI14" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ14" s="0" t="n"/>
+      <c r="AK14" s="0" t="n"/>
+      <c r="AL14" s="0" t="n"/>
+      <c r="AM14" s="0" t="n"/>
+      <c r="AN14" s="0" t="n"/>
+      <c r="AO14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+      <c r="B15" s="0" t="n"/>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Happy Cake</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>AID0014</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Rest</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="n"/>
+      <c r="M15" s="0" t="n"/>
+      <c r="N15" s="0" t="n"/>
+      <c r="O15" s="0" t="n"/>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="n"/>
+      <c r="R15" s="0" t="n"/>
+      <c r="S15" s="0" t="n"/>
+      <c r="T15" s="0" t="n"/>
+      <c r="U15" s="0" t="n"/>
+      <c r="V15" s="0" t="n"/>
+      <c r="W15" s="0" t="n"/>
+      <c r="X15" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH15" s="0" t="n"/>
+      <c r="AI15" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ15" s="0" t="n"/>
+      <c r="AK15" s="0" t="n"/>
+      <c r="AL15" s="0" t="n"/>
+      <c r="AM15" s="0" t="n"/>
+      <c r="AN15" s="0" t="n"/>
+      <c r="AO15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+      <c r="B16" s="0" t="n"/>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>UI/UX</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ruskin bond</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>AID0003</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Stanley</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>AID0015</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>Trest</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
         <is>
           <t>QTP</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J16" s="0" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="L16" s="0" t="n"/>
+      <c r="M16" s="0" t="n"/>
+      <c r="N16" s="0" t="n"/>
+      <c r="O16" s="0" t="n"/>
+      <c r="P16" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
+      <c r="Q16" s="0" t="n"/>
+      <c r="R16" s="0" t="n"/>
+      <c r="S16" s="0" t="n"/>
+      <c r="T16" s="0" t="n"/>
+      <c r="U16" s="0" t="n"/>
+      <c r="V16" s="0" t="n"/>
+      <c r="W16" s="0" t="n"/>
+      <c r="X16" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y16" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="AC16" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AD16" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH16" s="0" t="n"/>
+      <c r="AI16" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ16" s="0" t="n"/>
+      <c r="AK16" s="0" t="n"/>
+      <c r="AL16" s="0" t="n"/>
+      <c r="AM16" s="0" t="n"/>
+      <c r="AN16" s="0" t="n"/>
+      <c r="AO16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n"/>
+      <c r="B17" s="0" t="n"/>
+      <c r="C17" s="0" t="n"/>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Yellow Car</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>AID0016</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="n"/>
+      <c r="M17" s="0" t="n"/>
+      <c r="N17" s="0" t="n"/>
+      <c r="O17" s="0" t="n"/>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="n"/>
+      <c r="R17" s="0" t="n"/>
+      <c r="S17" s="0" t="n"/>
+      <c r="T17" s="0" t="n"/>
+      <c r="U17" s="0" t="n"/>
+      <c r="V17" s="0" t="n"/>
+      <c r="W17" s="0" t="n"/>
+      <c r="X17" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH17" s="0" t="n"/>
+      <c r="AI17" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ17" s="0" t="n"/>
+      <c r="AK17" s="0" t="n"/>
+      <c r="AL17" s="0" t="n"/>
+      <c r="AM17" s="0" t="n"/>
+      <c r="AN17" s="0" t="n"/>
+      <c r="AO17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n"/>
+      <c r="B18" s="0" t="n"/>
+      <c r="C18" s="0" t="n"/>
+      <c r="D18" s="0" t="n"/>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Green Grass</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>AID0017</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Rest</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="n"/>
+      <c r="M18" s="0" t="n"/>
+      <c r="N18" s="0" t="n"/>
+      <c r="O18" s="0" t="n"/>
+      <c r="P18" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q18" s="0" t="n"/>
+      <c r="R18" s="0" t="n"/>
+      <c r="S18" s="0" t="n"/>
+      <c r="T18" s="0" t="n"/>
+      <c r="U18" s="0" t="n"/>
+      <c r="V18" s="0" t="n"/>
+      <c r="W18" s="0" t="n"/>
+      <c r="X18" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ18" s="0" t="n"/>
+      <c r="AK18" s="0" t="n"/>
+      <c r="AL18" s="0" t="n"/>
+      <c r="AM18" s="0" t="n"/>
+      <c r="AN18" s="0" t="n"/>
+      <c r="AO18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n"/>
+      <c r="B19" s="0" t="n"/>
+      <c r="C19" s="0" t="n"/>
+      <c r="D19" s="0" t="n"/>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>UI/UX</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Pink Basket</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>AID0018</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Trest</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>QTP</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>EU</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="n"/>
+      <c r="M19" s="0" t="n"/>
+      <c r="N19" s="0" t="n"/>
+      <c r="O19" s="0" t="n"/>
+      <c r="P19" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q19" s="0" t="n"/>
+      <c r="R19" s="0" t="n"/>
+      <c r="S19" s="0" t="n"/>
+      <c r="T19" s="0" t="n"/>
+      <c r="U19" s="0" t="n"/>
+      <c r="V19" s="0" t="n"/>
+      <c r="W19" s="0" t="n"/>
+      <c r="X19" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="Y19" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA19" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB19" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC19" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD19" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE19" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG19" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH19" s="0" t="n"/>
+      <c r="AI19" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ19" s="0" t="n"/>
+      <c r="AK19" s="0" t="n"/>
+      <c r="AL19" s="0" t="n"/>
+      <c r="AM19" s="0" t="n"/>
+      <c r="AN19" s="0" t="n"/>
+      <c r="AO19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n"/>
+      <c r="B20" s="0" t="n"/>
+      <c r="C20" s="0" t="n"/>
+      <c r="D20" s="0" t="n"/>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Orange Orange</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>AID0019</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Crest</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="n"/>
+      <c r="M20" s="0" t="n"/>
+      <c r="N20" s="0" t="n"/>
+      <c r="O20" s="0" t="n"/>
+      <c r="P20" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q20" s="0" t="n"/>
+      <c r="R20" s="0" t="n"/>
+      <c r="S20" s="0" t="n"/>
+      <c r="T20" s="0" t="n"/>
+      <c r="U20" s="0" t="n"/>
+      <c r="V20" s="0" t="n"/>
+      <c r="W20" s="0" t="n"/>
+      <c r="X20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF20" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG20" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AH20" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="AI20" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ4" t="n">
-        <v/>
-      </c>
-      <c r="AK4" t="n">
-        <v/>
-      </c>
-      <c r="AL4" t="n">
-        <v/>
-      </c>
-      <c r="AM4" t="n">
-        <v/>
-      </c>
-      <c r="AN4" t="n">
-        <v/>
-      </c>
-      <c r="AO4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="AJ20" s="0" t="n"/>
+      <c r="AK20" s="0" t="n"/>
+      <c r="AL20" s="0" t="n"/>
+      <c r="AM20" s="0" t="n"/>
+      <c r="AN20" s="0" t="n"/>
+      <c r="AO20" s="0" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n"/>
+      <c r="B21" s="0" t="n"/>
+      <c r="C21" s="0" t="n"/>
+      <c r="D21" s="0" t="n"/>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>White Laser</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>AID0020</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Vrest</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="n"/>
+      <c r="M21" s="0" t="n"/>
+      <c r="N21" s="0" t="n"/>
+      <c r="O21" s="0" t="n"/>
+      <c r="P21" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="n"/>
+      <c r="R21" s="0" t="n"/>
+      <c r="S21" s="0" t="n"/>
+      <c r="T21" s="0" t="n"/>
+      <c r="U21" s="0" t="n"/>
+      <c r="V21" s="0" t="n"/>
+      <c r="W21" s="0" t="n"/>
+      <c r="X21" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z21" s="0" t="n"/>
+      <c r="AA21" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD21" s="0" t="n"/>
+      <c r="AE21" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF21" s="0" t="n"/>
+      <c r="AG21" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH21" s="0" t="n"/>
+      <c r="AI21" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ21" s="0" t="n"/>
+      <c r="AK21" s="0" t="n"/>
+      <c r="AL21" s="0" t="n"/>
+      <c r="AM21" s="0" t="n"/>
+      <c r="AN21" s="0" t="n"/>
+      <c r="AO21" s="0" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n"/>
+      <c r="B22" s="0" t="n"/>
+      <c r="C22" s="0" t="n"/>
+      <c r="D22" s="0" t="n"/>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>Avni Chaturvedi</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>AID0021</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Vrest</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="n"/>
+      <c r="M22" s="0" t="n"/>
+      <c r="N22" s="0" t="n"/>
+      <c r="O22" s="0" t="n"/>
+      <c r="P22" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q22" s="0" t="n"/>
+      <c r="R22" s="0" t="n"/>
+      <c r="S22" s="0" t="n"/>
+      <c r="T22" s="0" t="n"/>
+      <c r="U22" s="0" t="n"/>
+      <c r="V22" s="0" t="n"/>
+      <c r="W22" s="0" t="n"/>
+      <c r="X22" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z22" s="0" t="n"/>
+      <c r="AA22" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AD22" s="0" t="n"/>
+      <c r="AE22" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF22" s="0" t="n"/>
+      <c r="AG22" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH22" s="0" t="n"/>
+      <c r="AI22" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ22" s="0" t="n"/>
+      <c r="AK22" s="0" t="n"/>
+      <c r="AL22" s="0" t="n"/>
+      <c r="AM22" s="0" t="n"/>
+      <c r="AN22" s="0" t="n"/>
+      <c r="AO22" s="0" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n"/>
+      <c r="B23" s="0" t="n"/>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="0" t="n"/>
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>QEA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ronald Weasley</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AID0004</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Tim Halpert II</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>AID0022</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Fest</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
         <is>
           <t>NFT</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J23" s="0" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K23" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="L23" s="0" t="n"/>
+      <c r="M23" s="0" t="n"/>
+      <c r="N23" s="0" t="n"/>
+      <c r="O23" s="0" t="n"/>
+      <c r="P23" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v>566</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>92000</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="Q23" s="0" t="n"/>
+      <c r="R23" s="0" t="n"/>
+      <c r="S23" s="0" t="n"/>
+      <c r="T23" s="0" t="n"/>
+      <c r="U23" s="0" t="n"/>
+      <c r="V23" s="0" t="n"/>
+      <c r="W23" s="0" t="n"/>
+      <c r="X23" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z23" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA23" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB23" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC23" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD23" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE5" t="n">
-        <v>92000</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AE23" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF23" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG23" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AH23" s="0" t="n"/>
+      <c r="AI23" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ5" t="n">
-        <v/>
-      </c>
-      <c r="AK5" t="n">
-        <v/>
-      </c>
-      <c r="AL5" t="n">
-        <v/>
-      </c>
-      <c r="AM5" t="n">
-        <v/>
-      </c>
-      <c r="AN5" t="n">
-        <v/>
-      </c>
-      <c r="AO5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="AJ23" s="0" t="n"/>
+      <c r="AK23" s="0" t="n"/>
+      <c r="AL23" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO23" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n"/>
+      <c r="B24" s="0" t="n"/>
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="0" t="n"/>
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>QEA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hermione</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AID0005</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Rest</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Jim Halpert II</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>AID0023</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Fest</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
         <is>
           <t>NFT</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J24" s="0" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K24" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="L24" s="0" t="n"/>
+      <c r="M24" s="0" t="n"/>
+      <c r="N24" s="0" t="n"/>
+      <c r="O24" s="0" t="n"/>
+      <c r="P24" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
+      <c r="Q24" s="0" t="n"/>
+      <c r="R24" s="0" t="n"/>
+      <c r="S24" s="0" t="n"/>
+      <c r="T24" s="0" t="n"/>
+      <c r="U24" s="0" t="n"/>
+      <c r="V24" s="0" t="n"/>
+      <c r="W24" s="0" t="n"/>
+      <c r="X24" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="Y6" t="n">
-        <v>96000</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="Y24" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z24" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA24" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB24" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC24" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD24" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE24" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF24" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG24" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH24" s="0" t="n"/>
+      <c r="AI24" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ24" s="0" t="n"/>
+      <c r="AK24" s="0" t="n"/>
+      <c r="AL24" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AM24" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN24" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO24" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n"/>
+      <c r="B25" s="0" t="n"/>
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="0" t="n"/>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>AID0024</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>QTest</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="n"/>
+      <c r="M25" s="0" t="n"/>
+      <c r="N25" s="0" t="n"/>
+      <c r="O25" s="0" t="n"/>
+      <c r="P25" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q25" s="0" t="n"/>
+      <c r="R25" s="0" t="n"/>
+      <c r="S25" s="0" t="n"/>
+      <c r="T25" s="0" t="n"/>
+      <c r="U25" s="0" t="n"/>
+      <c r="V25" s="0" t="n"/>
+      <c r="W25" s="0" t="n"/>
+      <c r="X25" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>72000</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC25" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ6" t="n">
-        <v/>
-      </c>
-      <c r="AK6" t="n">
-        <v/>
-      </c>
-      <c r="AL6" t="n">
-        <v/>
-      </c>
-      <c r="AM6" t="n">
-        <v/>
-      </c>
-      <c r="AN6" t="n">
-        <v/>
-      </c>
-      <c r="AO6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>UI/UX</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Snape</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AID0006</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Trest</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>QTP</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AD25" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>84000</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AH25" s="0" t="n"/>
+      <c r="AI25" s="0" t="n">
+        <v>88000</v>
+      </c>
+      <c r="AJ25" s="0" t="n"/>
+      <c r="AK25" s="0" t="n"/>
+      <c r="AL25" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM25" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN25" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO25" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>QEA</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>TTTTTT</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>edewffr</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>QTest</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>AID0025</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Vrest</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>NFT</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>APAC</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="L26" s="0" t="n"/>
+      <c r="M26" s="0" t="n"/>
+      <c r="N26" s="0" t="n"/>
+      <c r="O26" s="0" t="n"/>
+      <c r="P26" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="Q26" s="0" t="n"/>
+      <c r="R26" s="0" t="n"/>
+      <c r="S26" s="0" t="n"/>
+      <c r="T26" s="0" t="n"/>
+      <c r="U26" s="0" t="n"/>
+      <c r="V26" s="0" t="n"/>
+      <c r="W26" s="0" t="n"/>
+      <c r="X26" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="Z7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="Z26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>72000</v>
       </c>
-      <c r="AB7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AB26" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC26" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD26" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE26" s="0" t="n">
         <v>84000</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF26" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG26" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AH26" s="0" t="n"/>
+      <c r="AI26" s="0" t="n">
         <v>88000</v>
       </c>
-      <c r="AJ7" t="n">
-        <v/>
-      </c>
-      <c r="AK7" t="n">
-        <v/>
-      </c>
-      <c r="AL7" t="n">
-        <v/>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Julian Moore</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AID0007</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Crest</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="AJ26" s="0" t="n"/>
+      <c r="AK26" s="0" t="n"/>
+      <c r="AL26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM26" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN26" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO26" s="0" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr"/>
+      <c r="C27" s="0" t="inlineStr"/>
+      <c r="D27" s="0" t="inlineStr"/>
+      <c r="E27" s="0" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr"/>
+      <c r="I27" s="0" t="inlineStr"/>
+      <c r="J27" s="0" t="inlineStr"/>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>AID0026</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>PTest</t>
+        </is>
+      </c>
+      <c r="M27" s="0" t="inlineStr"/>
+      <c r="N27" s="0" t="inlineStr"/>
+      <c r="O27" s="0" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="P27" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q27" s="0" t="inlineStr"/>
+      <c r="R27" s="0" t="inlineStr"/>
+      <c r="S27" s="0" t="inlineStr"/>
+      <c r="T27" s="0" t="inlineStr"/>
+      <c r="U27" s="0" t="inlineStr"/>
+      <c r="V27" s="0" t="inlineStr"/>
+      <c r="W27" s="0" t="inlineStr"/>
+      <c r="X27" s="0" t="inlineStr"/>
+      <c r="Y27" s="0" t="inlineStr"/>
+      <c r="Z27" s="0" t="inlineStr"/>
+      <c r="AA27" s="0" t="inlineStr"/>
+      <c r="AB27" s="0" t="inlineStr"/>
+      <c r="AC27" s="0" t="inlineStr"/>
+      <c r="AD27" s="0" t="inlineStr"/>
+      <c r="AE27" s="0" t="inlineStr"/>
+      <c r="AF27" s="0" t="inlineStr"/>
+      <c r="AG27" s="0" t="inlineStr"/>
+      <c r="AH27" s="0" t="inlineStr"/>
+      <c r="AI27" s="0" t="inlineStr"/>
+      <c r="AJ27" s="0" t="inlineStr"/>
+      <c r="AK27" s="0" t="inlineStr"/>
+      <c r="AL27" s="0" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>AID0027</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ptest1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v/>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>700</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v/>
-      </c>
-      <c r="AK8" t="n">
-        <v/>
-      </c>
-      <c r="AL8" t="n">
-        <v/>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SPE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Tarzan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AID0008</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Vrest</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AA9" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SPE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Superman</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AID0009</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Vrest</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
-      <c r="AA10" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Tim Halpert</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AID0010</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Fest</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v/>
-      </c>
-      <c r="AK11" t="n">
-        <v/>
-      </c>
-      <c r="AL11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Jim Halpert</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AID0011</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Fest</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="R12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v/>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>AID0012</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>QTest</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="R13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AA13" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Miachel Scarn</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>AID0013</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
-      </c>
-      <c r="R14" t="n">
-        <v/>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v>566</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v/>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Happy Cake</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>AID0014</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Rest</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
-      </c>
-      <c r="R15" t="n">
-        <v/>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v/>
-      </c>
-      <c r="AK15" t="n">
-        <v/>
-      </c>
-      <c r="AL15" t="n">
-        <v/>
-      </c>
-      <c r="AM15" t="n">
-        <v/>
-      </c>
-      <c r="AN15" t="n">
-        <v/>
-      </c>
-      <c r="AO15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>UI/UX</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Stanley</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>AID0015</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Trest</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>QTP</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
-      </c>
-      <c r="R16" t="n">
-        <v/>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v/>
-      </c>
-      <c r="AK16" t="n">
-        <v/>
-      </c>
-      <c r="AL16" t="n">
-        <v/>
-      </c>
-      <c r="AM16" t="n">
-        <v/>
-      </c>
-      <c r="AN16" t="n">
-        <v/>
-      </c>
-      <c r="AO16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v/>
-      </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
-      <c r="C17" t="n">
-        <v/>
-      </c>
-      <c r="D17" t="n">
-        <v/>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yellow Car</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>AID0016</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v/>
-      </c>
-      <c r="M17" t="n">
-        <v/>
-      </c>
-      <c r="N17" t="n">
-        <v/>
-      </c>
-      <c r="O17" t="n">
-        <v/>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v/>
-      </c>
-      <c r="R17" t="n">
-        <v/>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="n">
-        <v/>
-      </c>
-      <c r="U17" t="n">
-        <v/>
-      </c>
-      <c r="V17" t="n">
-        <v/>
-      </c>
-      <c r="W17" t="n">
-        <v/>
-      </c>
-      <c r="X17" t="n">
-        <v>566</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v/>
-      </c>
-      <c r="AI17" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v/>
-      </c>
-      <c r="AK17" t="n">
-        <v/>
-      </c>
-      <c r="AL17" t="n">
-        <v/>
-      </c>
-      <c r="AM17" t="n">
-        <v/>
-      </c>
-      <c r="AN17" t="n">
-        <v/>
-      </c>
-      <c r="AO17" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v/>
-      </c>
-      <c r="B18" t="n">
-        <v/>
-      </c>
-      <c r="C18" t="n">
-        <v/>
-      </c>
-      <c r="D18" t="n">
-        <v/>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Green Grass</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>AID0017</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Rest</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v/>
-      </c>
-      <c r="M18" t="n">
-        <v/>
-      </c>
-      <c r="N18" t="n">
-        <v/>
-      </c>
-      <c r="O18" t="n">
-        <v/>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v/>
-      </c>
-      <c r="R18" t="n">
-        <v/>
-      </c>
-      <c r="S18" t="n">
-        <v/>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
-      <c r="U18" t="n">
-        <v/>
-      </c>
-      <c r="V18" t="n">
-        <v/>
-      </c>
-      <c r="W18" t="n">
-        <v/>
-      </c>
-      <c r="X18" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v/>
-      </c>
-      <c r="AK18" t="n">
-        <v/>
-      </c>
-      <c r="AL18" t="n">
-        <v/>
-      </c>
-      <c r="AM18" t="n">
-        <v/>
-      </c>
-      <c r="AN18" t="n">
-        <v/>
-      </c>
-      <c r="AO18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v/>
-      </c>
-      <c r="B19" t="n">
-        <v/>
-      </c>
-      <c r="C19" t="n">
-        <v/>
-      </c>
-      <c r="D19" t="n">
-        <v/>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>UI/UX</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Pink Basket</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>AID0018</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Trest</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>QTP</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v/>
-      </c>
-      <c r="M19" t="n">
-        <v/>
-      </c>
-      <c r="N19" t="n">
-        <v/>
-      </c>
-      <c r="O19" t="n">
-        <v/>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v/>
-      </c>
-      <c r="R19" t="n">
-        <v/>
-      </c>
-      <c r="S19" t="n">
-        <v/>
-      </c>
-      <c r="T19" t="n">
-        <v/>
-      </c>
-      <c r="U19" t="n">
-        <v/>
-      </c>
-      <c r="V19" t="n">
-        <v/>
-      </c>
-      <c r="W19" t="n">
-        <v/>
-      </c>
-      <c r="X19" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v/>
-      </c>
-      <c r="AI19" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v/>
-      </c>
-      <c r="AK19" t="n">
-        <v/>
-      </c>
-      <c r="AL19" t="n">
-        <v/>
-      </c>
-      <c r="AM19" t="n">
-        <v/>
-      </c>
-      <c r="AN19" t="n">
-        <v/>
-      </c>
-      <c r="AO19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v/>
-      </c>
-      <c r="B20" t="n">
-        <v/>
-      </c>
-      <c r="C20" t="n">
-        <v/>
-      </c>
-      <c r="D20" t="n">
-        <v/>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Orange Orange</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>AID0019</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Crest</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v/>
-      </c>
-      <c r="M20" t="n">
-        <v/>
-      </c>
-      <c r="N20" t="n">
-        <v/>
-      </c>
-      <c r="O20" t="n">
-        <v/>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v/>
-      </c>
-      <c r="R20" t="n">
-        <v/>
-      </c>
-      <c r="S20" t="n">
-        <v/>
-      </c>
-      <c r="T20" t="n">
-        <v/>
-      </c>
-      <c r="U20" t="n">
-        <v/>
-      </c>
-      <c r="V20" t="n">
-        <v/>
-      </c>
-      <c r="W20" t="n">
-        <v/>
-      </c>
-      <c r="X20" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>400</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v/>
-      </c>
-      <c r="AK20" t="n">
-        <v/>
-      </c>
-      <c r="AL20" t="n">
-        <v/>
-      </c>
-      <c r="AM20" t="n">
-        <v/>
-      </c>
-      <c r="AN20" t="n">
-        <v/>
-      </c>
-      <c r="AO20" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v/>
-      </c>
-      <c r="B21" t="n">
-        <v/>
-      </c>
-      <c r="C21" t="n">
-        <v/>
-      </c>
-      <c r="D21" t="n">
-        <v/>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SPE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>White Laser</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>AID0020</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Vrest</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v/>
-      </c>
-      <c r="M21" t="n">
-        <v/>
-      </c>
-      <c r="N21" t="n">
-        <v/>
-      </c>
-      <c r="O21" t="n">
-        <v/>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v/>
-      </c>
-      <c r="R21" t="n">
-        <v/>
-      </c>
-      <c r="S21" t="n">
-        <v/>
-      </c>
-      <c r="T21" t="n">
-        <v/>
-      </c>
-      <c r="U21" t="n">
-        <v/>
-      </c>
-      <c r="V21" t="n">
-        <v/>
-      </c>
-      <c r="W21" t="n">
-        <v/>
-      </c>
-      <c r="X21" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v/>
-      </c>
-      <c r="AA21" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v/>
-      </c>
-      <c r="AE21" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v/>
-      </c>
-      <c r="AG21" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v/>
-      </c>
-      <c r="AI21" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v/>
-      </c>
-      <c r="AK21" t="n">
-        <v/>
-      </c>
-      <c r="AL21" t="n">
-        <v/>
-      </c>
-      <c r="AM21" t="n">
-        <v/>
-      </c>
-      <c r="AN21" t="n">
-        <v/>
-      </c>
-      <c r="AO21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v/>
-      </c>
-      <c r="B22" t="n">
-        <v/>
-      </c>
-      <c r="C22" t="n">
-        <v/>
-      </c>
-      <c r="D22" t="n">
-        <v/>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SPE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Avni Chaturvedi</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>AID0021</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Vrest</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>SRE</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v/>
-      </c>
-      <c r="M22" t="n">
-        <v/>
-      </c>
-      <c r="N22" t="n">
-        <v/>
-      </c>
-      <c r="O22" t="n">
-        <v/>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v/>
-      </c>
-      <c r="R22" t="n">
-        <v/>
-      </c>
-      <c r="S22" t="n">
-        <v/>
-      </c>
-      <c r="T22" t="n">
-        <v/>
-      </c>
-      <c r="U22" t="n">
-        <v/>
-      </c>
-      <c r="V22" t="n">
-        <v/>
-      </c>
-      <c r="W22" t="n">
-        <v/>
-      </c>
-      <c r="X22" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v/>
-      </c>
-      <c r="AA22" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD22" t="n">
-        <v/>
-      </c>
-      <c r="AE22" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v/>
-      </c>
-      <c r="AG22" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v/>
-      </c>
-      <c r="AI22" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v/>
-      </c>
-      <c r="AK22" t="n">
-        <v/>
-      </c>
-      <c r="AL22" t="n">
-        <v/>
-      </c>
-      <c r="AM22" t="n">
-        <v/>
-      </c>
-      <c r="AN22" t="n">
-        <v/>
-      </c>
-      <c r="AO22" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v/>
-      </c>
-      <c r="B23" t="n">
-        <v/>
-      </c>
-      <c r="C23" t="n">
-        <v/>
-      </c>
-      <c r="D23" t="n">
-        <v/>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tim Halpert II</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>AID0022</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Fest</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v/>
-      </c>
-      <c r="M23" t="n">
-        <v/>
-      </c>
-      <c r="N23" t="n">
-        <v/>
-      </c>
-      <c r="O23" t="n">
-        <v/>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v/>
-      </c>
-      <c r="R23" t="n">
-        <v/>
-      </c>
-      <c r="S23" t="n">
-        <v/>
-      </c>
-      <c r="T23" t="n">
-        <v/>
-      </c>
-      <c r="U23" t="n">
-        <v/>
-      </c>
-      <c r="V23" t="n">
-        <v/>
-      </c>
-      <c r="W23" t="n">
-        <v/>
-      </c>
-      <c r="X23" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v/>
-      </c>
-      <c r="AI23" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v/>
-      </c>
-      <c r="AK23" t="n">
-        <v/>
-      </c>
-      <c r="AL23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v/>
-      </c>
-      <c r="B24" t="n">
-        <v/>
-      </c>
-      <c r="C24" t="n">
-        <v/>
-      </c>
-      <c r="D24" t="n">
-        <v/>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Jim Halpert II</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AID0023</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Fest</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v/>
-      </c>
-      <c r="M24" t="n">
-        <v/>
-      </c>
-      <c r="N24" t="n">
-        <v/>
-      </c>
-      <c r="O24" t="n">
-        <v/>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v/>
-      </c>
-      <c r="R24" t="n">
-        <v/>
-      </c>
-      <c r="S24" t="n">
-        <v/>
-      </c>
-      <c r="T24" t="n">
-        <v/>
-      </c>
-      <c r="U24" t="n">
-        <v/>
-      </c>
-      <c r="V24" t="n">
-        <v/>
-      </c>
-      <c r="W24" t="n">
-        <v/>
-      </c>
-      <c r="X24" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v/>
-      </c>
-      <c r="AI24" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v/>
-      </c>
-      <c r="AK24" t="n">
-        <v/>
-      </c>
-      <c r="AL24" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v/>
-      </c>
-      <c r="B25" t="n">
-        <v/>
-      </c>
-      <c r="C25" t="n">
-        <v/>
-      </c>
-      <c r="D25" t="n">
-        <v/>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>AID0024</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>QTest</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v/>
-      </c>
-      <c r="M25" t="n">
-        <v/>
-      </c>
-      <c r="N25" t="n">
-        <v/>
-      </c>
-      <c r="O25" t="n">
-        <v/>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v/>
-      </c>
-      <c r="R25" t="n">
-        <v/>
-      </c>
-      <c r="S25" t="n">
-        <v/>
-      </c>
-      <c r="T25" t="n">
-        <v/>
-      </c>
-      <c r="U25" t="n">
-        <v/>
-      </c>
-      <c r="V25" t="n">
-        <v/>
-      </c>
-      <c r="W25" t="n">
-        <v/>
-      </c>
-      <c r="X25" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v/>
-      </c>
-      <c r="AI25" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v/>
-      </c>
-      <c r="AK25" t="n">
-        <v/>
-      </c>
-      <c r="AL25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>QEA</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>TTTTTT</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>edewffr</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>QTest</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>AID0025</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Vrest</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>NFT</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>APAC</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v/>
-      </c>
-      <c r="M26" t="n">
-        <v/>
-      </c>
-      <c r="N26" t="n">
-        <v/>
-      </c>
-      <c r="O26" t="n">
-        <v/>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v/>
-      </c>
-      <c r="R26" t="n">
-        <v/>
-      </c>
-      <c r="S26" t="n">
-        <v/>
-      </c>
-      <c r="T26" t="n">
-        <v/>
-      </c>
-      <c r="U26" t="n">
-        <v/>
-      </c>
-      <c r="V26" t="n">
-        <v/>
-      </c>
-      <c r="W26" t="n">
-        <v/>
-      </c>
-      <c r="X26" t="n">
-        <v>500</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>84000</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>350</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>640</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>84000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>450</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v/>
-      </c>
-      <c r="AI26" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v/>
-      </c>
-      <c r="AK26" t="n">
-        <v/>
-      </c>
-      <c r="AL26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>900</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
